--- a/backend/jupyter/volume_sections/misc_Standardized_coefficients.xlsx
+++ b/backend/jupyter/volume_sections/misc_Standardized_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okany\Documents\GitHub\football-simulation-game\backend\jupyter\volume_sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9FFA5-8E62-4887-843F-F4F9423F5ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5C662-58E8-4B38-91B3-126351B175AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="1935" windowWidth="23445" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="x" sheetId="1" r:id="rId1"/>
@@ -385,6 +385,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -731,8 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,118 +861,118 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>0.25554032132194421</v>
+        <v>0.4157933350029035</v>
       </c>
       <c r="C2">
         <v>1.38870811441832</v>
       </c>
       <c r="D2">
-        <v>3.9492820723937123E-2</v>
+        <v>-0.27227550108398568</v>
       </c>
       <c r="E2">
         <v>1.3792523185294581</v>
       </c>
       <c r="F2">
-        <v>-0.17100966159286571</v>
+        <v>-0.48369248216555849</v>
       </c>
       <c r="G2">
         <v>2.061599430822366</v>
       </c>
       <c r="H2">
-        <v>-3.6135858620206802E-2</v>
+        <v>-5.2523817963745422E-3</v>
       </c>
       <c r="I2">
         <v>0.10800683483131281</v>
       </c>
       <c r="J2">
-        <v>-5.8770919370543673E-3</v>
+        <v>6.1912460040045481E-4</v>
       </c>
       <c r="K2">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L2">
-        <v>1.096294799169546</v>
+        <v>-0.5143206680553577</v>
       </c>
       <c r="M2">
         <v>12.06323819585938</v>
       </c>
       <c r="N2">
-        <v>-0.1590267510437989</v>
+        <v>-6.0825242935765009E-2</v>
       </c>
       <c r="O2">
         <v>11.50093603314445</v>
       </c>
       <c r="P2">
-        <v>-0.15836623433276159</v>
+        <v>-3.5103185320652007E-2</v>
       </c>
       <c r="Q2">
         <v>1.801132813998908</v>
       </c>
       <c r="R2">
-        <v>-9.8366120831994586E-2</v>
+        <v>1.0166341595251689</v>
       </c>
       <c r="S2">
         <v>17.378777056883809</v>
       </c>
       <c r="T2">
-        <v>0.29042785217492167</v>
+        <v>0.1906554544469107</v>
       </c>
       <c r="U2">
         <v>9.0100947772977751</v>
       </c>
       <c r="V2">
-        <v>0.43930220621124261</v>
+        <v>-0.18921703514323271</v>
       </c>
       <c r="W2">
         <v>9.7709418863113235</v>
       </c>
       <c r="X2">
-        <v>6.2625701895503996E-2</v>
+        <v>1.5203116893928481E-2</v>
       </c>
       <c r="Y2">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z2">
-        <v>6.9225052667850145E-2</v>
+        <v>-1.034994135003719E-2</v>
       </c>
       <c r="AA2">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB2">
-        <v>4.5808677222710734E-3</v>
+        <v>-6.2881090444735516E-3</v>
       </c>
       <c r="AC2">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD2">
-        <v>0.9718956488406798</v>
+        <v>0.90006537329744785</v>
       </c>
       <c r="AE2">
         <v>53.513454003500549</v>
       </c>
       <c r="AF2">
-        <v>-0.60642024939729056</v>
+        <v>-1.6939037739673299</v>
       </c>
       <c r="AG2">
         <v>14.03746860215735</v>
       </c>
       <c r="AH2">
-        <v>-1.307240065274246</v>
+        <v>-2.0233825051548662</v>
       </c>
       <c r="AI2">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ2">
-        <v>1.1506361791058251</v>
+        <v>0.15300309752646971</v>
       </c>
       <c r="AK2">
         <v>49.816277458285953</v>
       </c>
       <c r="AL2">
-        <v>-1.913660314671535</v>
+        <v>-3.7172862791221979</v>
       </c>
       <c r="AM2">
         <v>28.167338245615049</v>
@@ -977,118 +980,118 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>-1.8852140553546139E-2</v>
+        <v>0.16191915971098039</v>
       </c>
       <c r="C3">
         <v>1.38870811441832</v>
       </c>
       <c r="D3">
-        <v>3.1177855936953928E-3</v>
+        <v>-3.4306657862552527E-2</v>
       </c>
       <c r="E3">
         <v>1.3792523185294581</v>
       </c>
       <c r="F3">
-        <v>6.8617807525254676E-2</v>
+        <v>-0.17852379881508551</v>
       </c>
       <c r="G3">
         <v>2.061599430822366</v>
       </c>
       <c r="H3">
-        <v>-1.907449342685456E-3</v>
+        <v>-2.7002010172874739E-2</v>
       </c>
       <c r="I3">
         <v>0.10800683483131281</v>
       </c>
       <c r="J3">
-        <v>-6.6192242293333786E-3</v>
+        <v>1.387527518522502E-3</v>
       </c>
       <c r="K3">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L3">
-        <v>0.57577232792453625</v>
+        <v>-0.77387482070516256</v>
       </c>
       <c r="M3">
         <v>12.06323819585938</v>
       </c>
       <c r="N3">
-        <v>-5.6170771973673123E-2</v>
+        <v>-8.5487294215874171E-2</v>
       </c>
       <c r="O3">
         <v>11.50093603314445</v>
       </c>
       <c r="P3">
-        <v>0.17122027027117831</v>
+        <v>0.14371681978982909</v>
       </c>
       <c r="Q3">
         <v>1.801132813998908</v>
       </c>
       <c r="R3">
-        <v>0.77948740715096976</v>
+        <v>0.42927840926490329</v>
       </c>
       <c r="S3">
         <v>17.378777056883809</v>
       </c>
       <c r="T3">
-        <v>-0.34345804664698232</v>
+        <v>-0.11011853390737809</v>
       </c>
       <c r="U3">
         <v>9.0100947772977751</v>
       </c>
       <c r="V3">
-        <v>-6.028504654600253E-2</v>
+        <v>-7.6107282379298979E-2</v>
       </c>
       <c r="W3">
         <v>9.7709418863113235</v>
       </c>
       <c r="X3">
-        <v>1.399265974828909E-2</v>
+        <v>2.42662223739745E-3</v>
       </c>
       <c r="Y3">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z3">
-        <v>1.037902242071879E-2</v>
+        <v>-2.497588071433798E-2</v>
       </c>
       <c r="AA3">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB3">
-        <v>9.3345095539658623E-3</v>
+        <v>1.657408831393082E-2</v>
       </c>
       <c r="AC3">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD3">
-        <v>0.45023431732973679</v>
+        <v>0.54177844936364172</v>
       </c>
       <c r="AE3">
         <v>53.513454003500549</v>
       </c>
       <c r="AF3">
-        <v>0.71793195082933403</v>
+        <v>-1.2787477015290101</v>
       </c>
       <c r="AG3">
         <v>14.03746860215735</v>
       </c>
       <c r="AH3">
-        <v>0.79114551141978329</v>
+        <v>-1.579779451982098</v>
       </c>
       <c r="AI3">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ3">
-        <v>0.1174536479494009</v>
+        <v>0.28073103577928782</v>
       </c>
       <c r="AK3">
         <v>49.816277458285953</v>
       </c>
       <c r="AL3">
-        <v>1.5090774622491181</v>
+        <v>-2.8585271535111079</v>
       </c>
       <c r="AM3">
         <v>28.167338245615049</v>
@@ -1096,118 +1099,118 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>-6.3692818617320512E-2</v>
+        <v>0.25554032132194421</v>
       </c>
       <c r="C4">
         <v>1.38870811441832</v>
       </c>
       <c r="D4">
-        <v>-4.4137496353222831E-2</v>
+        <v>3.9492820723937123E-2</v>
       </c>
       <c r="E4">
         <v>1.3792523185294581</v>
       </c>
       <c r="F4">
-        <v>0.1436961604653256</v>
+        <v>-0.17100966159286571</v>
       </c>
       <c r="G4">
         <v>2.061599430822366</v>
       </c>
       <c r="H4">
-        <v>3.022458003690523E-2</v>
+        <v>-3.6135858620206802E-2</v>
       </c>
       <c r="I4">
         <v>0.10800683483131281</v>
       </c>
       <c r="J4">
-        <v>1.0741710812246339E-2</v>
+        <v>-5.8770919370543673E-3</v>
       </c>
       <c r="K4">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L4">
-        <v>0.54947426160751522</v>
+        <v>1.096294799169546</v>
       </c>
       <c r="M4">
         <v>12.06323819585938</v>
       </c>
       <c r="N4">
-        <v>0.18407073016121919</v>
+        <v>-0.1590267510437989</v>
       </c>
       <c r="O4">
         <v>11.50093603314445</v>
       </c>
       <c r="P4">
-        <v>-3.5366165857820923E-2</v>
+        <v>-0.15836623433276159</v>
       </c>
       <c r="Q4">
         <v>1.801132813998908</v>
       </c>
       <c r="R4">
-        <v>0.25711836689169593</v>
+        <v>-9.8366120831994586E-2</v>
       </c>
       <c r="S4">
         <v>17.378777056883809</v>
       </c>
       <c r="T4">
-        <v>-5.215898362428581E-2</v>
+        <v>0.29042785217492167</v>
       </c>
       <c r="U4">
         <v>9.0100947772977751</v>
       </c>
       <c r="V4">
-        <v>2.6705622154904029E-2</v>
+        <v>0.43930220621124261</v>
       </c>
       <c r="W4">
         <v>9.7709418863113235</v>
       </c>
       <c r="X4">
-        <v>-2.3706745768480971E-2</v>
+        <v>6.2625701895503996E-2</v>
       </c>
       <c r="Y4">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z4">
-        <v>1.305715266087462E-2</v>
+        <v>6.9225052667850145E-2</v>
       </c>
       <c r="AA4">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB4">
-        <v>2.473857838841844E-2</v>
+        <v>4.5808677222710734E-3</v>
       </c>
       <c r="AC4">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD4">
-        <v>0.26636644803499981</v>
+        <v>0.9718956488406798</v>
       </c>
       <c r="AE4">
         <v>53.513454003500549</v>
       </c>
       <c r="AF4">
-        <v>0.32328982046820648</v>
+        <v>-0.60642024939729056</v>
       </c>
       <c r="AG4">
         <v>14.03746860215735</v>
       </c>
       <c r="AH4">
-        <v>0.5117082839790188</v>
+        <v>-1.307240065274246</v>
       </c>
       <c r="AI4">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ4">
-        <v>-0.39102771168003531</v>
+        <v>1.1506361791058251</v>
       </c>
       <c r="AK4">
         <v>49.816277458285953</v>
       </c>
       <c r="AL4">
-        <v>0.83499810444722633</v>
+        <v>-1.913660314671535</v>
       </c>
       <c r="AM4">
         <v>28.167338245615049</v>
@@ -1215,118 +1218,118 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>-7.2822797772864059E-2</v>
+        <v>0.136838498467622</v>
       </c>
       <c r="C5">
         <v>1.38870811441832</v>
       </c>
       <c r="D5">
-        <v>7.0389905862597427E-2</v>
+        <v>-6.5160637032649155E-2</v>
       </c>
       <c r="E5">
         <v>1.3792523185294581</v>
       </c>
       <c r="F5">
-        <v>0.23389554007460939</v>
+        <v>2.2103639324289801E-2</v>
       </c>
       <c r="G5">
         <v>2.061599430822366</v>
       </c>
       <c r="H5">
-        <v>3.072013411335056E-3</v>
+        <v>-1.828845566444115E-2</v>
       </c>
       <c r="I5">
         <v>0.10800683483131281</v>
       </c>
       <c r="J5">
-        <v>-7.3441395203403901E-4</v>
+        <v>-6.1234420104435191E-3</v>
       </c>
       <c r="K5">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L5">
-        <v>0.4454059613835164</v>
+        <v>-2.2721546692723259E-2</v>
       </c>
       <c r="M5">
         <v>12.06323819585938</v>
       </c>
       <c r="N5">
-        <v>0.15948515993118001</v>
+        <v>0.2408786817117311</v>
       </c>
       <c r="O5">
         <v>11.50093603314445</v>
       </c>
       <c r="P5">
-        <v>3.8283557434685873E-2</v>
+        <v>0.11441156510610261</v>
       </c>
       <c r="Q5">
         <v>1.801132813998908</v>
       </c>
       <c r="R5">
-        <v>-0.49425726799804182</v>
+        <v>-0.4456769259590031</v>
       </c>
       <c r="S5">
         <v>17.378777056883809</v>
       </c>
       <c r="T5">
-        <v>0.25012668508026398</v>
+        <v>-0.1210781022300694</v>
       </c>
       <c r="U5">
         <v>9.0100947772977751</v>
       </c>
       <c r="V5">
-        <v>-4.8857673284592382E-2</v>
+        <v>-0.1053708948755868</v>
       </c>
       <c r="W5">
         <v>9.7709418863113235</v>
       </c>
       <c r="X5">
-        <v>3.150003886125748E-3</v>
+        <v>1.846731006814618E-2</v>
       </c>
       <c r="Y5">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z5">
-        <v>5.1260872936383338E-3</v>
+        <v>-4.0211145388353242E-2</v>
       </c>
       <c r="AA5">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB5">
-        <v>-6.0119128483953274E-3</v>
+        <v>2.123163946268377E-3</v>
       </c>
       <c r="AC5">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD5">
-        <v>-0.61842513957321066</v>
+        <v>0.13682249132625579</v>
       </c>
       <c r="AE5">
         <v>53.513454003500549</v>
       </c>
       <c r="AF5">
-        <v>0.61009659232970348</v>
+        <v>-0.2077300402274268</v>
       </c>
       <c r="AG5">
         <v>14.03746860215735</v>
       </c>
       <c r="AH5">
-        <v>0.72626530793109167</v>
+        <v>-0.82910366453890383</v>
       </c>
       <c r="AI5">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ5">
-        <v>-0.35669657315720799</v>
+        <v>0.8590046287882106</v>
       </c>
       <c r="AK5">
         <v>49.816277458285953</v>
       </c>
       <c r="AL5">
-        <v>1.3363619002607969</v>
+        <v>-1.036833704766333</v>
       </c>
       <c r="AM5">
         <v>28.167338245615049</v>
@@ -1334,118 +1337,118 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>-3.899968816640937E-2</v>
+        <v>-1.4667655495934779E-2</v>
       </c>
       <c r="C6">
         <v>1.38870811441832</v>
       </c>
       <c r="D6">
-        <v>4.0394368761922039E-2</v>
+        <v>6.0323734858904771E-2</v>
       </c>
       <c r="E6">
         <v>1.3792523185294581</v>
       </c>
       <c r="F6">
-        <v>0.1021113027627899</v>
+        <v>-0.16539303366448119</v>
       </c>
       <c r="G6">
         <v>2.061599430822366</v>
       </c>
       <c r="H6">
-        <v>1.7278361778709769E-2</v>
+        <v>-1.545845131110269E-2</v>
       </c>
       <c r="I6">
         <v>0.10800683483131281</v>
       </c>
       <c r="J6">
-        <v>1.076643471482309E-2</v>
+        <v>-7.6623014328113404E-3</v>
       </c>
       <c r="K6">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L6">
-        <v>0.43038046236558403</v>
+        <v>-0.45173315750178078</v>
       </c>
       <c r="M6">
         <v>12.06323819585938</v>
       </c>
       <c r="N6">
-        <v>-6.42171567794044E-2</v>
+        <v>-2.5828867128347061E-2</v>
       </c>
       <c r="O6">
         <v>11.50093603314445</v>
       </c>
       <c r="P6">
-        <v>7.4733597265155688E-2</v>
+        <v>0.1269865380850129</v>
       </c>
       <c r="Q6">
         <v>1.801132813998908</v>
       </c>
       <c r="R6">
-        <v>0.28058930834392132</v>
+        <v>-0.9610024737923929</v>
       </c>
       <c r="S6">
         <v>17.378777056883809</v>
       </c>
       <c r="T6">
-        <v>-0.29472558916794689</v>
+        <v>0.10390851109181121</v>
       </c>
       <c r="U6">
         <v>9.0100947772977751</v>
       </c>
       <c r="V6">
-        <v>6.4211581446923377E-3</v>
+        <v>7.709107502305787E-2</v>
       </c>
       <c r="W6">
         <v>9.7709418863113235</v>
       </c>
       <c r="X6">
-        <v>-3.975200014626471E-3</v>
+        <v>1.08218147626102E-2</v>
       </c>
       <c r="Y6">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z6">
-        <v>-4.1862068354811023E-3</v>
+        <v>-1.0196427279708129E-2</v>
       </c>
       <c r="AA6">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB6">
-        <v>4.9183536090990198E-3</v>
+        <v>-8.7115906174778965E-4</v>
       </c>
       <c r="AC6">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD6">
-        <v>0.32432976258292212</v>
+        <v>-0.14899878569985689</v>
       </c>
       <c r="AE6">
         <v>53.513454003500549</v>
       </c>
       <c r="AF6">
-        <v>0.27477561809568157</v>
+        <v>-0.4551775909472372</v>
       </c>
       <c r="AG6">
         <v>14.03746860215735</v>
       </c>
       <c r="AH6">
-        <v>-2.7370237313399881E-2</v>
+        <v>-0.76649645591829096</v>
       </c>
       <c r="AI6">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ6">
-        <v>0.49052984654978032</v>
+        <v>0.97831980953941078</v>
       </c>
       <c r="AK6">
         <v>49.816277458285953</v>
       </c>
       <c r="AL6">
-        <v>0.2474053807822818</v>
+        <v>-1.2216740468655281</v>
       </c>
       <c r="AM6">
         <v>28.167338245615049</v>
@@ -1453,118 +1456,118 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>4.7520178219180809E-2</v>
+        <v>-4.5099164459739167E-2</v>
       </c>
       <c r="C7">
         <v>1.38870811441832</v>
       </c>
       <c r="D7">
-        <v>-8.5991884121218304E-2</v>
+        <v>3.7320298834588837E-2</v>
       </c>
       <c r="E7">
         <v>1.3792523185294581</v>
       </c>
       <c r="F7">
-        <v>3.8634257059386931E-2</v>
+        <v>-7.6820941678773513E-3</v>
       </c>
       <c r="G7">
         <v>2.061599430822366</v>
       </c>
       <c r="H7">
-        <v>-5.2914955354524526E-3</v>
+        <v>2.6054544986413141E-2</v>
       </c>
       <c r="I7">
         <v>0.10800683483131281</v>
       </c>
       <c r="J7">
-        <v>-4.9127248036028356E-3</v>
+        <v>6.5508731265785883E-3</v>
       </c>
       <c r="K7">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L7">
-        <v>0.42672600209662309</v>
+        <v>-0.80682146338018734</v>
       </c>
       <c r="M7">
         <v>12.06323819585938</v>
       </c>
       <c r="N7">
-        <v>7.7727738512973502E-2</v>
+        <v>0.1450842394168031</v>
       </c>
       <c r="O7">
         <v>11.50093603314445</v>
       </c>
       <c r="P7">
-        <v>6.3067188399939342E-2</v>
+        <v>7.5073462905178703E-2</v>
       </c>
       <c r="Q7">
         <v>1.801132813998908</v>
       </c>
       <c r="R7">
-        <v>0.20334875062128291</v>
+        <v>-0.72436737298077758</v>
       </c>
       <c r="S7">
         <v>17.378777056883809</v>
       </c>
       <c r="T7">
-        <v>-0.20385851084486159</v>
+        <v>4.3603260538237883E-2</v>
       </c>
       <c r="U7">
         <v>9.0100947772977751</v>
       </c>
       <c r="V7">
-        <v>-2.6988963091685941E-2</v>
+        <v>-0.27124827768200199</v>
       </c>
       <c r="W7">
         <v>9.7709418863113235</v>
       </c>
       <c r="X7">
-        <v>-8.5767034389686043E-3</v>
+        <v>-1.620060812422236E-2</v>
       </c>
       <c r="Y7">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z7">
-        <v>-5.7855604353510481E-3</v>
+        <v>2.3647493889148979E-2</v>
       </c>
       <c r="AA7">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB7">
-        <v>-1.2941445845016961E-3</v>
+        <v>9.0094509700264658E-3</v>
       </c>
       <c r="AC7">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD7">
-        <v>8.5657354041805245E-2</v>
+        <v>-2.1354722781001949</v>
       </c>
       <c r="AE7">
         <v>53.513454003500549</v>
       </c>
       <c r="AF7">
-        <v>0.52762213333585894</v>
+        <v>-0.64119550527840774</v>
       </c>
       <c r="AG7">
         <v>14.03746860215735</v>
       </c>
       <c r="AH7">
-        <v>9.6444304418031646E-2</v>
+        <v>-0.37004829282750218</v>
       </c>
       <c r="AI7">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ7">
-        <v>0.66159578748526826</v>
+        <v>-2.1391040480807061E-2</v>
       </c>
       <c r="AK7">
         <v>49.816277458285953</v>
       </c>
       <c r="AL7">
-        <v>0.62406643775388959</v>
+        <v>-1.011243798105909</v>
       </c>
       <c r="AM7">
         <v>28.167338245615049</v>
@@ -1572,118 +1575,118 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>4.5476267054731789E-3</v>
+        <v>-3.871785278711392E-2</v>
       </c>
       <c r="C8">
         <v>1.38870811441832</v>
       </c>
       <c r="D8">
-        <v>-5.0365483889241273E-2</v>
+        <v>-9.9892511179989346E-3</v>
       </c>
       <c r="E8">
         <v>1.3792523185294581</v>
       </c>
       <c r="F8">
-        <v>6.2404572205807897E-2</v>
+        <v>7.0547874829782337E-2</v>
       </c>
       <c r="G8">
         <v>2.061599430822366</v>
       </c>
       <c r="H8">
-        <v>-1.2443651797682399E-2</v>
+        <v>8.5533542133769489E-3</v>
       </c>
       <c r="I8">
         <v>0.10800683483131281</v>
       </c>
       <c r="J8">
-        <v>-1.393391338422798E-2</v>
+        <v>-8.5601264682684912E-3</v>
       </c>
       <c r="K8">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L8">
-        <v>0.42061219887791551</v>
+        <v>0.26114968605401367</v>
       </c>
       <c r="M8">
         <v>12.06323819585938</v>
       </c>
       <c r="N8">
-        <v>0.1681493303634026</v>
+        <v>-0.41554615319236049</v>
       </c>
       <c r="O8">
         <v>11.50093603314445</v>
       </c>
       <c r="P8">
-        <v>-0.101244890284202</v>
+        <v>-6.7629732140418689E-2</v>
       </c>
       <c r="Q8">
         <v>1.801132813998908</v>
       </c>
       <c r="R8">
-        <v>1.469391104059568</v>
+        <v>-1.6759239461581621</v>
       </c>
       <c r="S8">
         <v>17.378777056883809</v>
       </c>
       <c r="T8">
-        <v>2.330577407019949E-2</v>
+        <v>-0.56071382180463691</v>
       </c>
       <c r="U8">
         <v>9.0100947772977751</v>
       </c>
       <c r="V8">
-        <v>2.210312717532088E-2</v>
+        <v>-0.49084886106770159</v>
       </c>
       <c r="W8">
         <v>9.7709418863113235</v>
       </c>
       <c r="X8">
-        <v>-1.395485510658033E-2</v>
+        <v>-2.9209467442267659E-2</v>
       </c>
       <c r="Y8">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z8">
-        <v>9.1958102631328822E-3</v>
+        <v>-2.6349986812076891E-2</v>
       </c>
       <c r="AA8">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB8">
-        <v>2.222214565096233E-3</v>
+        <v>-1.6328589403591491E-2</v>
       </c>
       <c r="AC8">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD8">
-        <v>0.73325181537844886</v>
+        <v>-1.0798708914347079</v>
       </c>
       <c r="AE8">
         <v>53.513454003500549</v>
       </c>
       <c r="AF8">
-        <v>1.109612346216523</v>
+        <v>-0.33379519238923022</v>
       </c>
       <c r="AG8">
         <v>14.03746860215735</v>
       </c>
       <c r="AH8">
-        <v>0.82970661729916084</v>
+        <v>-0.2271551346978217</v>
       </c>
       <c r="AI8">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ8">
-        <v>0.26548180056680432</v>
+        <v>-5.0215354679427449E-2</v>
       </c>
       <c r="AK8">
         <v>49.816277458285953</v>
       </c>
       <c r="AL8">
-        <v>1.939318963515684</v>
+        <v>-0.56095032708705106</v>
       </c>
       <c r="AM8">
         <v>28.167338245615049</v>
@@ -1691,118 +1694,118 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>-0.10797043911003069</v>
+        <v>-4.2375812621697623E-2</v>
       </c>
       <c r="C9">
         <v>1.38870811441832</v>
       </c>
       <c r="D9">
-        <v>-2.2689793358613541E-2</v>
+        <v>-7.2369714803282068E-2</v>
       </c>
       <c r="E9">
         <v>1.3792523185294581</v>
       </c>
       <c r="F9">
-        <v>9.1973501467819199E-2</v>
+        <v>0.19342577622133009</v>
       </c>
       <c r="G9">
         <v>2.061599430822366</v>
       </c>
       <c r="H9">
-        <v>2.93612821549359E-2</v>
+        <v>3.5144592956496273E-2</v>
       </c>
       <c r="I9">
         <v>0.10800683483131281</v>
       </c>
       <c r="J9">
-        <v>4.5614260468895568E-3</v>
+        <v>8.8311058825897466E-3</v>
       </c>
       <c r="K9">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L9">
-        <v>0.34277522499956697</v>
+        <v>-0.6559370731009968</v>
       </c>
       <c r="M9">
         <v>12.06323819585938</v>
       </c>
       <c r="N9">
-        <v>-0.27851822786458452</v>
+        <v>0.24482048906809931</v>
       </c>
       <c r="O9">
         <v>11.50093603314445</v>
       </c>
       <c r="P9">
-        <v>-0.10240271568283239</v>
+        <v>6.3078194331139509E-2</v>
       </c>
       <c r="Q9">
         <v>1.801132813998908</v>
       </c>
       <c r="R9">
-        <v>2.190646488911684E-2</v>
+        <v>-0.83721504437882488</v>
       </c>
       <c r="S9">
         <v>17.378777056883809</v>
       </c>
       <c r="T9">
-        <v>0.15744340777287871</v>
+        <v>-0.18565197578762391</v>
       </c>
       <c r="U9">
         <v>9.0100947772977751</v>
       </c>
       <c r="V9">
-        <v>6.5752982551551376E-2</v>
+        <v>-0.26738233459687522</v>
       </c>
       <c r="W9">
         <v>9.7709418863113235</v>
       </c>
       <c r="X9">
-        <v>-3.8141197765228412E-3</v>
+        <v>-1.613800252486515E-2</v>
       </c>
       <c r="Y9">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z9">
-        <v>-1.350039895566945E-2</v>
+        <v>-3.9996604648574213E-2</v>
       </c>
       <c r="AA9">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB9">
-        <v>-1.51248635595782E-2</v>
+        <v>-1.7516738363278678E-2</v>
       </c>
       <c r="AC9">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD9">
-        <v>-0.13035969814090531</v>
+        <v>-0.56717038652768492</v>
       </c>
       <c r="AE9">
         <v>53.513454003500549</v>
       </c>
       <c r="AF9">
-        <v>0.96435398475816758</v>
+        <v>-0.76169709246730588</v>
       </c>
       <c r="AG9">
         <v>14.03746860215735</v>
       </c>
       <c r="AH9">
-        <v>1.084184599296854</v>
+        <v>-0.2146331608576045</v>
       </c>
       <c r="AI9">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ9">
-        <v>7.5815358079637379E-2</v>
+        <v>-1.0463268121218889</v>
       </c>
       <c r="AK9">
         <v>49.816277458285953</v>
       </c>
       <c r="AL9">
-        <v>2.0485385840550192</v>
+        <v>-0.97633025332491097</v>
       </c>
       <c r="AM9">
         <v>28.167338245615049</v>
@@ -1810,118 +1813,118 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>-3.871785278711392E-2</v>
+        <v>1.546713712007523E-2</v>
       </c>
       <c r="C10">
         <v>1.38870811441832</v>
       </c>
       <c r="D10">
-        <v>-9.9892511179989346E-3</v>
+        <v>1.098003135686243E-2</v>
       </c>
       <c r="E10">
         <v>1.3792523185294581</v>
       </c>
       <c r="F10">
-        <v>7.0547874829782337E-2</v>
+        <v>-1.4642281225473831E-2</v>
       </c>
       <c r="G10">
         <v>2.061599430822366</v>
       </c>
       <c r="H10">
-        <v>8.5533542133769489E-3</v>
+        <v>1.551882423554455E-2</v>
       </c>
       <c r="I10">
         <v>0.10800683483131281</v>
       </c>
       <c r="J10">
-        <v>-8.5601264682684912E-3</v>
+        <v>1.139646654377019E-2</v>
       </c>
       <c r="K10">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L10">
-        <v>0.26114968605401367</v>
+        <v>-7.9858837968498006E-2</v>
       </c>
       <c r="M10">
         <v>12.06323819585938</v>
       </c>
       <c r="N10">
-        <v>-0.41554615319236049</v>
+        <v>-0.39032835706758279</v>
       </c>
       <c r="O10">
         <v>11.50093603314445</v>
       </c>
       <c r="P10">
-        <v>-6.7629732140418689E-2</v>
+        <v>1.9750066659635881E-2</v>
       </c>
       <c r="Q10">
         <v>1.801132813998908</v>
       </c>
       <c r="R10">
-        <v>-1.6759239461581621</v>
+        <v>0.18346794507671091</v>
       </c>
       <c r="S10">
         <v>17.378777056883809</v>
       </c>
       <c r="T10">
-        <v>-0.56071382180463691</v>
+        <v>-6.1092819735017498E-2</v>
       </c>
       <c r="U10">
         <v>9.0100947772977751</v>
       </c>
       <c r="V10">
-        <v>-0.49084886106770159</v>
+        <v>-0.25668798773732021</v>
       </c>
       <c r="W10">
         <v>9.7709418863113235</v>
       </c>
       <c r="X10">
-        <v>-2.9209467442267659E-2</v>
+        <v>2.030601635124417E-3</v>
       </c>
       <c r="Y10">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z10">
-        <v>-2.6349986812076891E-2</v>
+        <v>-1.3077100885713591E-2</v>
       </c>
       <c r="AA10">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB10">
-        <v>-1.6328589403591491E-2</v>
+        <v>5.938378263858719E-3</v>
       </c>
       <c r="AC10">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD10">
-        <v>-1.0798708914347079</v>
+        <v>-0.51509880853422541</v>
       </c>
       <c r="AE10">
         <v>53.513454003500549</v>
       </c>
       <c r="AF10">
-        <v>-0.33379519238923022</v>
+        <v>-0.22436361442018021</v>
       </c>
       <c r="AG10">
         <v>14.03746860215735</v>
       </c>
       <c r="AH10">
-        <v>-0.2271551346978217</v>
+        <v>-0.20914771432736101</v>
       </c>
       <c r="AI10">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ10">
-        <v>-5.0215354679427449E-2</v>
+        <v>-0.16588133811872369</v>
       </c>
       <c r="AK10">
         <v>49.816277458285953</v>
       </c>
       <c r="AL10">
-        <v>-0.56095032708705106</v>
+        <v>-0.43351132874754161</v>
       </c>
       <c r="AM10">
         <v>28.167338245615049</v>
@@ -1929,118 +1932,118 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>-6.8112114216833899E-2</v>
+        <v>2.448927618625283E-2</v>
       </c>
       <c r="C11">
         <v>1.38870811441832</v>
       </c>
       <c r="D11">
-        <v>-3.1688413326550063E-2</v>
+        <v>-3.8452088064691907E-2</v>
       </c>
       <c r="E11">
         <v>1.3792523185294581</v>
       </c>
       <c r="F11">
-        <v>3.8516677986541993E-2</v>
+        <v>-1.438796692629014E-2</v>
       </c>
       <c r="G11">
         <v>2.061599430822366</v>
       </c>
       <c r="H11">
-        <v>-2.3522974066742652E-2</v>
+        <v>-1.2256950363818599E-2</v>
       </c>
       <c r="I11">
         <v>0.10800683483131281</v>
       </c>
       <c r="J11">
-        <v>-1.444993567925486E-2</v>
+        <v>2.0292889174394931E-3</v>
       </c>
       <c r="K11">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L11">
-        <v>0.2490832999030958</v>
+        <v>-0.27536396904085803</v>
       </c>
       <c r="M11">
         <v>12.06323819585938</v>
       </c>
       <c r="N11">
-        <v>-0.1747279859752251</v>
+        <v>-0.18027937786868301</v>
       </c>
       <c r="O11">
         <v>11.50093603314445</v>
       </c>
       <c r="P11">
-        <v>0.14546717693863839</v>
+        <v>-0.15334373220606931</v>
       </c>
       <c r="Q11">
         <v>1.801132813998908</v>
       </c>
       <c r="R11">
-        <v>0.83617076345409558</v>
+        <v>0.93205611280762957</v>
       </c>
       <c r="S11">
         <v>17.378777056883809</v>
       </c>
       <c r="T11">
-        <v>-0.31580898699654297</v>
+        <v>-0.1964166626205823</v>
       </c>
       <c r="U11">
         <v>9.0100947772977751</v>
       </c>
       <c r="V11">
-        <v>-0.23135711175448481</v>
+        <v>4.342074905309347E-3</v>
       </c>
       <c r="W11">
         <v>9.7709418863113235</v>
       </c>
       <c r="X11">
-        <v>-7.2322348592502618E-3</v>
+        <v>-1.082507108583039E-2</v>
       </c>
       <c r="Y11">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z11">
-        <v>7.6156718954624794E-4</v>
+        <v>-1.19589559243713E-2</v>
       </c>
       <c r="AA11">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB11">
-        <v>-8.7722909503838292E-3</v>
+        <v>-1.0323156361431281E-2</v>
       </c>
       <c r="AC11">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD11">
-        <v>-0.27475392409707627</v>
+        <v>-4.3393753223960503E-2</v>
       </c>
       <c r="AE11">
         <v>53.513454003500549</v>
       </c>
       <c r="AF11">
-        <v>9.3558732173159492E-2</v>
+        <v>0.50688775541945141</v>
       </c>
       <c r="AG11">
         <v>14.03746860215735</v>
       </c>
       <c r="AH11">
-        <v>-9.7986139989803406E-3</v>
+        <v>-0.14661756015383329</v>
       </c>
       <c r="AI11">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ11">
-        <v>0.16485007718615161</v>
+        <v>1.1304786213228</v>
       </c>
       <c r="AK11">
         <v>49.816277458285953</v>
       </c>
       <c r="AL11">
-        <v>8.3760118174178444E-2</v>
+        <v>0.36027019526562071</v>
       </c>
       <c r="AM11">
         <v>28.167338245615049</v>
@@ -2048,118 +2051,118 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>-4.0969655080600138E-2</v>
+        <v>-5.1631201389215897E-2</v>
       </c>
       <c r="C12">
         <v>1.38870811441832</v>
       </c>
       <c r="D12">
-        <v>3.0668755020133009E-2</v>
+        <v>0.113606182037324</v>
       </c>
       <c r="E12">
         <v>1.3792523185294581</v>
       </c>
       <c r="F12">
-        <v>0.21833273659762381</v>
+        <v>-7.6112587585009175E-2</v>
       </c>
       <c r="G12">
         <v>2.061599430822366</v>
       </c>
       <c r="H12">
-        <v>1.9109516779554001E-2</v>
+        <v>2.8254072835448142E-3</v>
       </c>
       <c r="I12">
         <v>0.10800683483131281</v>
       </c>
       <c r="J12">
-        <v>1.4292996653352621E-2</v>
+        <v>8.4804523236199775E-3</v>
       </c>
       <c r="K12">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L12">
-        <v>0.21830710770026229</v>
+        <v>1.282095662075344E-2</v>
       </c>
       <c r="M12">
         <v>12.06323819585938</v>
       </c>
       <c r="N12">
-        <v>0.62684862984317402</v>
+        <v>0.17135666403146829</v>
       </c>
       <c r="O12">
         <v>11.50093603314445</v>
       </c>
       <c r="P12">
-        <v>4.8116527777567933E-2</v>
+        <v>-7.2900277848559958E-2</v>
       </c>
       <c r="Q12">
         <v>1.801132813998908</v>
       </c>
       <c r="R12">
-        <v>-0.1572962824786705</v>
+        <v>-0.35973307940417548</v>
       </c>
       <c r="S12">
         <v>17.378777056883809</v>
       </c>
       <c r="T12">
-        <v>-0.69536241817270539</v>
+        <v>0.4330155272794205</v>
       </c>
       <c r="U12">
         <v>9.0100947772977751</v>
       </c>
       <c r="V12">
-        <v>-3.3020645737004327E-2</v>
+        <v>0.21451954441061219</v>
       </c>
       <c r="W12">
         <v>9.7709418863113235</v>
       </c>
       <c r="X12">
-        <v>-6.6604024534867596E-3</v>
+        <v>-1.1221534984789189E-2</v>
       </c>
       <c r="Y12">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z12">
-        <v>2.1624696831168251E-2</v>
+        <v>3.9665733423829022E-2</v>
       </c>
       <c r="AA12">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB12">
-        <v>-6.9554737706136877E-3</v>
+        <v>2.0021312227084451E-2</v>
       </c>
       <c r="AC12">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD12">
-        <v>-0.53121589019130599</v>
+        <v>9.4011603382164688E-2</v>
       </c>
       <c r="AE12">
         <v>53.513454003500549</v>
       </c>
       <c r="AF12">
-        <v>0.51732625389516629</v>
+        <v>-0.60036045264435356</v>
       </c>
       <c r="AG12">
         <v>14.03746860215735</v>
       </c>
       <c r="AH12">
-        <v>0.46944162061719957</v>
+        <v>-0.12552280286838219</v>
       </c>
       <c r="AI12">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ12">
-        <v>0.43853791966187811</v>
+        <v>-0.61146308835768326</v>
       </c>
       <c r="AK12">
         <v>49.816277458285953</v>
       </c>
       <c r="AL12">
-        <v>0.98676787451236803</v>
+        <v>-0.7258832555127368</v>
       </c>
       <c r="AM12">
         <v>28.167338245615049</v>
@@ -2167,118 +2170,118 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>-5.7828036928680583E-2</v>
+        <v>0.1199998822451159</v>
       </c>
       <c r="C13">
         <v>1.38870811441832</v>
       </c>
       <c r="D13">
-        <v>0.1236359042245606</v>
+        <v>-2.8838479653170421E-2</v>
       </c>
       <c r="E13">
         <v>1.3792523185294581</v>
       </c>
       <c r="F13">
-        <v>1.3940646582369671E-2</v>
+        <v>2.1431746069738172E-2</v>
       </c>
       <c r="G13">
         <v>2.061599430822366</v>
       </c>
       <c r="H13">
-        <v>-3.448834999410942E-3</v>
+        <v>-3.3770752798527967E-2</v>
       </c>
       <c r="I13">
         <v>0.10800683483131281</v>
       </c>
       <c r="J13">
-        <v>5.1559849449772741E-3</v>
+        <v>-9.2754228558242398E-3</v>
       </c>
       <c r="K13">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L13">
-        <v>0.1816928244951222</v>
+        <v>-1.044234977426557E-2</v>
       </c>
       <c r="M13">
         <v>12.06323819585938</v>
       </c>
       <c r="N13">
-        <v>-0.54920966775492497</v>
+        <v>0.35197702179784779</v>
       </c>
       <c r="O13">
         <v>11.50093603314445</v>
       </c>
       <c r="P13">
-        <v>9.2146584930842018E-2</v>
+        <v>-0.1111485164841802</v>
       </c>
       <c r="Q13">
         <v>1.801132813998908</v>
       </c>
       <c r="R13">
-        <v>-1.426215316325387</v>
+        <v>0.30210938030923512</v>
       </c>
       <c r="S13">
         <v>17.378777056883809</v>
       </c>
       <c r="T13">
-        <v>0.39324757799672078</v>
+        <v>0.23515085265610219</v>
       </c>
       <c r="U13">
         <v>9.0100947772977751</v>
       </c>
       <c r="V13">
-        <v>1.064893428561142E-2</v>
+        <v>-0.34116609817826937</v>
       </c>
       <c r="W13">
         <v>9.7709418863113235</v>
       </c>
       <c r="X13">
-        <v>-1.8045826833949431E-2</v>
+        <v>2.910021917134506E-2</v>
       </c>
       <c r="Y13">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z13">
-        <v>2.1082543956819851E-2</v>
+        <v>1.9601427945614741E-3</v>
       </c>
       <c r="AA13">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB13">
-        <v>-7.5140973193277413E-4</v>
+        <v>7.1017210282600376E-3</v>
       </c>
       <c r="AC13">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD13">
-        <v>9.6778488669189533E-2</v>
+        <v>-0.8724790526349212</v>
       </c>
       <c r="AE13">
         <v>53.513454003500549</v>
       </c>
       <c r="AF13">
-        <v>0.32139498427725322</v>
+        <v>-7.6443609852267724E-2</v>
       </c>
       <c r="AG13">
         <v>14.03746860215735</v>
       </c>
       <c r="AH13">
-        <v>0.36641499739626782</v>
+        <v>-0.119541030490331</v>
       </c>
       <c r="AI13">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ13">
-        <v>1.7564626505587291E-2</v>
+        <v>3.0611901867822981E-2</v>
       </c>
       <c r="AK13">
         <v>49.816277458285953</v>
       </c>
       <c r="AL13">
-        <v>0.68780998167352081</v>
+        <v>-0.19598464034259691</v>
       </c>
       <c r="AM13">
         <v>28.167338245615049</v>
@@ -2286,118 +2289,118 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>-5.3930149004760293E-2</v>
+        <v>3.0388769940174941E-2</v>
       </c>
       <c r="C14">
         <v>1.38870811441832</v>
       </c>
       <c r="D14">
-        <v>-1.084833049617792E-2</v>
+        <v>-9.988116292005432E-3</v>
       </c>
       <c r="E14">
         <v>1.3792523185294581</v>
       </c>
       <c r="F14">
-        <v>-8.1110993515591534E-3</v>
+        <v>-4.2929484558952652E-2</v>
       </c>
       <c r="G14">
         <v>2.061599430822366</v>
       </c>
       <c r="H14">
-        <v>-1.16541408379727E-2</v>
+        <v>-1.5155639496592719E-3</v>
       </c>
       <c r="I14">
         <v>0.10800683483131281</v>
       </c>
       <c r="J14">
-        <v>-1.2593950898382601E-2</v>
+        <v>-3.4015356377856492E-3</v>
       </c>
       <c r="K14">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L14">
-        <v>9.1027025900260072E-2</v>
+        <v>-0.102703189262688</v>
       </c>
       <c r="M14">
         <v>12.06323819585938</v>
       </c>
       <c r="N14">
-        <v>0.1912323253039809</v>
+        <v>5.8083761804127283E-2</v>
       </c>
       <c r="O14">
         <v>11.50093603314445</v>
       </c>
       <c r="P14">
-        <v>6.7564779188376486E-2</v>
+        <v>-6.5850044667618984E-2</v>
       </c>
       <c r="Q14">
         <v>1.801132813998908</v>
       </c>
       <c r="R14">
-        <v>-0.63358494558581369</v>
+        <v>0.37639428123531993</v>
       </c>
       <c r="S14">
         <v>17.378777056883809</v>
       </c>
       <c r="T14">
-        <v>0.2097305444784536</v>
+        <v>2.6915962888179431E-2</v>
       </c>
       <c r="U14">
         <v>9.0100947772977751</v>
       </c>
       <c r="V14">
-        <v>0.47837239378575003</v>
+        <v>0.11091754584403569</v>
       </c>
       <c r="W14">
         <v>9.7709418863113235</v>
       </c>
       <c r="X14">
-        <v>-7.5746689978890263E-3</v>
+        <v>1.534113417105603E-3</v>
       </c>
       <c r="Y14">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z14">
-        <v>2.508704644989904E-2</v>
+        <v>2.0471553047679911E-4</v>
       </c>
       <c r="AA14">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB14">
-        <v>-7.1924124689655734E-3</v>
+        <v>5.5195865865088657E-3</v>
       </c>
       <c r="AC14">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD14">
-        <v>0.32823109337831102</v>
+        <v>0.2837410795068171</v>
       </c>
       <c r="AE14">
         <v>53.513454003500549</v>
       </c>
       <c r="AF14">
-        <v>-6.3412632566446692E-2</v>
+        <v>-0.33539391643407918</v>
       </c>
       <c r="AG14">
         <v>14.03746860215735</v>
       </c>
       <c r="AH14">
-        <v>0.32585482711208802</v>
+        <v>-0.1040608474778037</v>
       </c>
       <c r="AI14">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ14">
-        <v>-0.50404082528667493</v>
+        <v>-0.25941449512944542</v>
       </c>
       <c r="AK14">
         <v>49.816277458285953</v>
       </c>
       <c r="AL14">
-        <v>0.26244219454564099</v>
+        <v>-0.43945476391188237</v>
       </c>
       <c r="AM14">
         <v>28.167338245615049</v>
@@ -2405,118 +2408,118 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>6.5390701058468712E-2</v>
+        <v>3.5024900573260763E-2</v>
       </c>
       <c r="C15">
         <v>1.38870811441832</v>
       </c>
       <c r="D15">
-        <v>-5.6842180705967658E-2</v>
+        <v>-8.0464858394763528E-2</v>
       </c>
       <c r="E15">
         <v>1.3792523185294581</v>
       </c>
       <c r="F15">
-        <v>-7.0463455480652581E-2</v>
+        <v>3.109411423987787E-2</v>
       </c>
       <c r="G15">
         <v>2.061599430822366</v>
       </c>
       <c r="H15">
-        <v>-4.9569268341764061E-2</v>
+        <v>2.6127351665572781E-2</v>
       </c>
       <c r="I15">
         <v>0.10800683483131281</v>
       </c>
       <c r="J15">
-        <v>-3.2007299203622289E-2</v>
+        <v>1.5152601927411351E-2</v>
       </c>
       <c r="K15">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L15">
-        <v>9.0449464613983066E-2</v>
+        <v>-0.14450112033906121</v>
       </c>
       <c r="M15">
         <v>12.06323819585938</v>
       </c>
       <c r="N15">
-        <v>-7.7198691512527728E-2</v>
+        <v>-2.4854759590096882E-2</v>
       </c>
       <c r="O15">
         <v>11.50093603314445</v>
       </c>
       <c r="P15">
-        <v>-2.0420131881339499E-2</v>
+        <v>-2.5163740904193009E-2</v>
       </c>
       <c r="Q15">
         <v>1.801132813998908</v>
       </c>
       <c r="R15">
-        <v>0.84637632070869617</v>
+        <v>0.67027762612994157</v>
       </c>
       <c r="S15">
         <v>17.378777056883809</v>
       </c>
       <c r="T15">
-        <v>-8.3712853478551397E-2</v>
+        <v>-0.31481122107139031</v>
       </c>
       <c r="U15">
         <v>9.0100947772977751</v>
       </c>
       <c r="V15">
-        <v>0.24949219886705409</v>
+        <v>1.622067209959463E-2</v>
       </c>
       <c r="W15">
         <v>9.7709418863113235</v>
       </c>
       <c r="X15">
-        <v>-1.5318335242798249E-2</v>
+        <v>1.602619507801753E-2</v>
       </c>
       <c r="Y15">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z15">
-        <v>1.5076626163212479E-2</v>
+        <v>-3.977621887882099E-2</v>
       </c>
       <c r="AA15">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB15">
-        <v>9.0724508741355948E-3</v>
+        <v>-9.2316324996788001E-5</v>
       </c>
       <c r="AC15">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD15">
-        <v>1.2426291751830221</v>
+        <v>0.29129894839913528</v>
       </c>
       <c r="AE15">
         <v>53.513454003500549</v>
       </c>
       <c r="AF15">
-        <v>-0.1572760086836526</v>
+        <v>0.1016679912526617</v>
       </c>
       <c r="AG15">
         <v>14.03746860215735</v>
       </c>
       <c r="AH15">
-        <v>-1.7044280446746361E-2</v>
+        <v>-8.9740083051038727E-2</v>
       </c>
       <c r="AI15">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ15">
-        <v>-0.16392367715478301</v>
+        <v>0.41932578907644202</v>
       </c>
       <c r="AK15">
         <v>49.816277458285953</v>
       </c>
       <c r="AL15">
-        <v>-0.17432028913039629</v>
+        <v>1.192790820162171E-2</v>
       </c>
       <c r="AM15">
         <v>28.167338245615049</v>
@@ -2524,118 +2527,118 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16">
-        <v>-5.1631201389215897E-2</v>
+        <v>-0.14473912546270251</v>
       </c>
       <c r="C16">
         <v>1.38870811441832</v>
       </c>
       <c r="D16">
-        <v>0.113606182037324</v>
+        <v>-1.344054780393153E-2</v>
       </c>
       <c r="E16">
         <v>1.3792523185294581</v>
       </c>
       <c r="F16">
-        <v>-7.6112587585009175E-2</v>
+        <v>1.8110595223508419E-3</v>
       </c>
       <c r="G16">
         <v>2.061599430822366</v>
       </c>
       <c r="H16">
-        <v>2.8254072835448142E-3</v>
+        <v>1.691717257173923E-2</v>
       </c>
       <c r="I16">
         <v>0.10800683483131281</v>
       </c>
       <c r="J16">
-        <v>8.4804523236199775E-3</v>
+        <v>1.3843440953072699E-2</v>
       </c>
       <c r="K16">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L16">
-        <v>1.282095662075344E-2</v>
+        <v>-0.322493786365042</v>
       </c>
       <c r="M16">
         <v>12.06323819585938</v>
       </c>
       <c r="N16">
-        <v>0.17135666403146829</v>
+        <v>-0.56854924251228844</v>
       </c>
       <c r="O16">
         <v>11.50093603314445</v>
       </c>
       <c r="P16">
-        <v>-7.2900277848559958E-2</v>
+        <v>-2.5394570881574909E-2</v>
       </c>
       <c r="Q16">
         <v>1.801132813998908</v>
       </c>
       <c r="R16">
-        <v>-0.35973307940417548</v>
+        <v>-0.1526523225028491</v>
       </c>
       <c r="S16">
         <v>17.378777056883809</v>
       </c>
       <c r="T16">
-        <v>0.4330155272794205</v>
+        <v>-0.16863456586144249</v>
       </c>
       <c r="U16">
         <v>9.0100947772977751</v>
       </c>
       <c r="V16">
-        <v>0.21451954441061219</v>
+        <v>3.5148228654159723E-2</v>
       </c>
       <c r="W16">
         <v>9.7709418863113235</v>
       </c>
       <c r="X16">
-        <v>-1.1221534984789189E-2</v>
+        <v>-3.4447973082007873E-2</v>
       </c>
       <c r="Y16">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z16">
-        <v>3.9665733423829022E-2</v>
+        <v>-2.6260639274565591E-3</v>
       </c>
       <c r="AA16">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB16">
-        <v>2.0021312227084451E-2</v>
+        <v>1.031935109768521E-4</v>
       </c>
       <c r="AC16">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD16">
-        <v>9.4011603382164688E-2</v>
+        <v>0.86466812950694572</v>
       </c>
       <c r="AE16">
         <v>53.513454003500549</v>
       </c>
       <c r="AF16">
-        <v>-0.60036045264435356</v>
+        <v>7.9137734713077057E-2</v>
       </c>
       <c r="AG16">
         <v>14.03746860215735</v>
       </c>
       <c r="AH16">
-        <v>-0.12552280286838219</v>
+        <v>-7.9439932201715441E-2</v>
       </c>
       <c r="AI16">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ16">
-        <v>-0.61146308835768326</v>
+        <v>0.27270476863042908</v>
       </c>
       <c r="AK16">
         <v>49.816277458285953</v>
       </c>
       <c r="AL16">
-        <v>-0.7258832555127368</v>
+        <v>-3.0219748863780088E-4</v>
       </c>
       <c r="AM16">
         <v>28.167338245615049</v>
@@ -2643,118 +2646,118 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>2.5042028375203331E-2</v>
+        <v>5.4881094210891032E-2</v>
       </c>
       <c r="C17">
         <v>1.38870811441832</v>
       </c>
       <c r="D17">
-        <v>6.7706144737488622E-2</v>
+        <v>-5.7131831885443449E-2</v>
       </c>
       <c r="E17">
         <v>1.3792523185294581</v>
       </c>
       <c r="F17">
-        <v>-2.1914834030055012E-2</v>
+        <v>-0.16663904885694361</v>
       </c>
       <c r="G17">
         <v>2.061599430822366</v>
       </c>
       <c r="H17">
-        <v>8.2940448408442991E-3</v>
+        <v>1.143008176670577E-2</v>
       </c>
       <c r="I17">
         <v>0.10800683483131281</v>
       </c>
       <c r="J17">
-        <v>6.6955653302074522E-3</v>
+        <v>1.7582605543676241E-3</v>
       </c>
       <c r="K17">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L17">
-        <v>-8.6385340622329443E-3</v>
+        <v>-0.62038229690401847</v>
       </c>
       <c r="M17">
         <v>12.06323819585938</v>
       </c>
       <c r="N17">
-        <v>-0.18922517730201291</v>
+        <v>3.7301002049691577E-2</v>
       </c>
       <c r="O17">
         <v>11.50093603314445</v>
       </c>
       <c r="P17">
-        <v>7.913607387152484E-2</v>
+        <v>-9.6156305542768883E-3</v>
       </c>
       <c r="Q17">
         <v>1.801132813998908</v>
       </c>
       <c r="R17">
-        <v>-1.170930999818528</v>
+        <v>0.17913777339018899</v>
       </c>
       <c r="S17">
         <v>17.378777056883809</v>
       </c>
       <c r="T17">
-        <v>-3.8150813981965848E-2</v>
+        <v>6.9828168492330006E-2</v>
       </c>
       <c r="U17">
         <v>9.0100947772977751</v>
       </c>
       <c r="V17">
-        <v>-0.22454164050201261</v>
+        <v>-0.13559206245748651</v>
       </c>
       <c r="W17">
         <v>9.7709418863113235</v>
       </c>
       <c r="X17">
-        <v>2.4587004156914321E-3</v>
+        <v>-1.644622739661987E-2</v>
       </c>
       <c r="Y17">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z17">
-        <v>2.1254594835292E-2</v>
+        <v>7.6711569107005282E-4</v>
       </c>
       <c r="AA17">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB17">
-        <v>1.8246721411074561E-3</v>
+        <v>2.8972275987577002E-3</v>
       </c>
       <c r="AC17">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD17">
-        <v>-0.34264002586758657</v>
+        <v>0.20869369844955171</v>
       </c>
       <c r="AE17">
         <v>53.513454003500549</v>
       </c>
       <c r="AF17">
-        <v>3.1623451474221957E-2</v>
+        <v>3.1685114410322623E-2</v>
       </c>
       <c r="AG17">
         <v>14.03746860215735</v>
       </c>
       <c r="AH17">
-        <v>8.1304947533981098E-3</v>
+        <v>-3.7213599749091331E-2</v>
       </c>
       <c r="AI17">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ17">
-        <v>0.146565283363842</v>
+        <v>-4.3715072044517467E-2</v>
       </c>
       <c r="AK17">
         <v>49.816277458285953</v>
       </c>
       <c r="AL17">
-        <v>3.9753946227618159E-2</v>
+        <v>-5.5284853387707056E-3</v>
       </c>
       <c r="AM17">
         <v>28.167338245615049</v>
@@ -2762,118 +2765,118 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B18">
-        <v>0.1199998822451159</v>
+        <v>-3.899968816640937E-2</v>
       </c>
       <c r="C18">
         <v>1.38870811441832</v>
       </c>
       <c r="D18">
-        <v>-2.8838479653170421E-2</v>
+        <v>4.0394368761922039E-2</v>
       </c>
       <c r="E18">
         <v>1.3792523185294581</v>
       </c>
       <c r="F18">
-        <v>2.1431746069738172E-2</v>
+        <v>0.1021113027627899</v>
       </c>
       <c r="G18">
         <v>2.061599430822366</v>
       </c>
       <c r="H18">
-        <v>-3.3770752798527967E-2</v>
+        <v>1.7278361778709769E-2</v>
       </c>
       <c r="I18">
         <v>0.10800683483131281</v>
       </c>
       <c r="J18">
-        <v>-9.2754228558242398E-3</v>
+        <v>1.076643471482309E-2</v>
       </c>
       <c r="K18">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L18">
-        <v>-1.044234977426557E-2</v>
+        <v>0.43038046236558403</v>
       </c>
       <c r="M18">
         <v>12.06323819585938</v>
       </c>
       <c r="N18">
-        <v>0.35197702179784779</v>
+        <v>-6.42171567794044E-2</v>
       </c>
       <c r="O18">
         <v>11.50093603314445</v>
       </c>
       <c r="P18">
-        <v>-0.1111485164841802</v>
+        <v>7.4733597265155688E-2</v>
       </c>
       <c r="Q18">
         <v>1.801132813998908</v>
       </c>
       <c r="R18">
-        <v>0.30210938030923512</v>
+        <v>0.28058930834392132</v>
       </c>
       <c r="S18">
         <v>17.378777056883809</v>
       </c>
       <c r="T18">
-        <v>0.23515085265610219</v>
+        <v>-0.29472558916794689</v>
       </c>
       <c r="U18">
         <v>9.0100947772977751</v>
       </c>
       <c r="V18">
-        <v>-0.34116609817826937</v>
+        <v>6.4211581446923377E-3</v>
       </c>
       <c r="W18">
         <v>9.7709418863113235</v>
       </c>
       <c r="X18">
-        <v>2.910021917134506E-2</v>
+        <v>-3.975200014626471E-3</v>
       </c>
       <c r="Y18">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z18">
-        <v>1.9601427945614741E-3</v>
+        <v>-4.1862068354811023E-3</v>
       </c>
       <c r="AA18">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB18">
-        <v>7.1017210282600376E-3</v>
+        <v>4.9183536090990198E-3</v>
       </c>
       <c r="AC18">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD18">
-        <v>-0.8724790526349212</v>
+        <v>0.32432976258292212</v>
       </c>
       <c r="AE18">
         <v>53.513454003500549</v>
       </c>
       <c r="AF18">
-        <v>-7.6443609852267724E-2</v>
+        <v>0.27477561809568157</v>
       </c>
       <c r="AG18">
         <v>14.03746860215735</v>
       </c>
       <c r="AH18">
-        <v>-0.119541030490331</v>
+        <v>-2.7370237313399881E-2</v>
       </c>
       <c r="AI18">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ18">
-        <v>3.0611901867822981E-2</v>
+        <v>0.49052984654978032</v>
       </c>
       <c r="AK18">
         <v>49.816277458285953</v>
       </c>
       <c r="AL18">
-        <v>-0.19598464034259691</v>
+        <v>0.2474053807822818</v>
       </c>
       <c r="AM18">
         <v>28.167338245615049</v>
@@ -2881,118 +2884,118 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19">
-        <v>-7.757108047793039E-3</v>
+        <v>6.5390701058468712E-2</v>
       </c>
       <c r="C19">
         <v>1.38870811441832</v>
       </c>
       <c r="D19">
-        <v>1.914931245055734E-4</v>
+        <v>-5.6842180705967658E-2</v>
       </c>
       <c r="E19">
         <v>1.3792523185294581</v>
       </c>
       <c r="F19">
-        <v>-2.457867000847791E-2</v>
+        <v>-7.0463455480652581E-2</v>
       </c>
       <c r="G19">
         <v>2.061599430822366</v>
       </c>
       <c r="H19">
-        <v>-1.712107373837557E-2</v>
+        <v>-4.9569268341764061E-2</v>
       </c>
       <c r="I19">
         <v>0.10800683483131281</v>
       </c>
       <c r="J19">
-        <v>-9.8905662011593287E-4</v>
+        <v>-3.2007299203622289E-2</v>
       </c>
       <c r="K19">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L19">
-        <v>-1.9331940140679599E-2</v>
+        <v>9.0449464613983066E-2</v>
       </c>
       <c r="M19">
         <v>12.06323819585938</v>
       </c>
       <c r="N19">
-        <v>4.2163572728900117E-2</v>
+        <v>-7.7198691512527728E-2</v>
       </c>
       <c r="O19">
         <v>11.50093603314445</v>
       </c>
       <c r="P19">
-        <v>6.3122703866115024E-3</v>
+        <v>-2.0420131881339499E-2</v>
       </c>
       <c r="Q19">
         <v>1.801132813998908</v>
       </c>
       <c r="R19">
-        <v>-0.27936600928717847</v>
+        <v>0.84637632070869617</v>
       </c>
       <c r="S19">
         <v>17.378777056883809</v>
       </c>
       <c r="T19">
-        <v>-8.4105623472956179E-2</v>
+        <v>-8.3712853478551397E-2</v>
       </c>
       <c r="U19">
         <v>9.0100947772977751</v>
       </c>
       <c r="V19">
-        <v>0.16727958251388331</v>
+        <v>0.24949219886705409</v>
       </c>
       <c r="W19">
         <v>9.7709418863113235</v>
       </c>
       <c r="X19">
-        <v>9.5264874356164788E-3</v>
+        <v>-1.5318335242798249E-2</v>
       </c>
       <c r="Y19">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z19">
-        <v>3.7428045845879458E-4</v>
+        <v>1.5076626163212479E-2</v>
       </c>
       <c r="AA19">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB19">
-        <v>6.6247514580880396E-3</v>
+        <v>9.0724508741355948E-3</v>
       </c>
       <c r="AC19">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD19">
-        <v>0.27954796960217232</v>
+        <v>1.2426291751830221</v>
       </c>
       <c r="AE19">
         <v>53.513454003500549</v>
       </c>
       <c r="AF19">
-        <v>0.91046576540192592</v>
+        <v>-0.1572760086836526</v>
       </c>
       <c r="AG19">
         <v>14.03746860215735</v>
       </c>
       <c r="AH19">
-        <v>2.4253252215976569E-2</v>
+        <v>-1.7044280446746361E-2</v>
       </c>
       <c r="AI19">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ19">
-        <v>1.2534241330049449</v>
+        <v>-0.16392367715478301</v>
       </c>
       <c r="AK19">
         <v>49.816277458285953</v>
       </c>
       <c r="AL19">
-        <v>0.93471901761790055</v>
+        <v>-0.17432028913039629</v>
       </c>
       <c r="AM19">
         <v>28.167338245615049</v>
@@ -3000,118 +3003,118 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>0.136838498467622</v>
+        <v>-6.8112114216833899E-2</v>
       </c>
       <c r="C20">
         <v>1.38870811441832</v>
       </c>
       <c r="D20">
-        <v>-6.5160637032649155E-2</v>
+        <v>-3.1688413326550063E-2</v>
       </c>
       <c r="E20">
         <v>1.3792523185294581</v>
       </c>
       <c r="F20">
-        <v>2.2103639324289801E-2</v>
+        <v>3.8516677986541993E-2</v>
       </c>
       <c r="G20">
         <v>2.061599430822366</v>
       </c>
       <c r="H20">
-        <v>-1.828845566444115E-2</v>
+        <v>-2.3522974066742652E-2</v>
       </c>
       <c r="I20">
         <v>0.10800683483131281</v>
       </c>
       <c r="J20">
-        <v>-6.1234420104435191E-3</v>
+        <v>-1.444993567925486E-2</v>
       </c>
       <c r="K20">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L20">
-        <v>-2.2721546692723259E-2</v>
+        <v>0.2490832999030958</v>
       </c>
       <c r="M20">
         <v>12.06323819585938</v>
       </c>
       <c r="N20">
-        <v>0.2408786817117311</v>
+        <v>-0.1747279859752251</v>
       </c>
       <c r="O20">
         <v>11.50093603314445</v>
       </c>
       <c r="P20">
-        <v>0.11441156510610261</v>
+        <v>0.14546717693863839</v>
       </c>
       <c r="Q20">
         <v>1.801132813998908</v>
       </c>
       <c r="R20">
-        <v>-0.4456769259590031</v>
+        <v>0.83617076345409558</v>
       </c>
       <c r="S20">
         <v>17.378777056883809</v>
       </c>
       <c r="T20">
-        <v>-0.1210781022300694</v>
+        <v>-0.31580898699654297</v>
       </c>
       <c r="U20">
         <v>9.0100947772977751</v>
       </c>
       <c r="V20">
-        <v>-0.1053708948755868</v>
+        <v>-0.23135711175448481</v>
       </c>
       <c r="W20">
         <v>9.7709418863113235</v>
       </c>
       <c r="X20">
-        <v>1.846731006814618E-2</v>
+        <v>-7.2322348592502618E-3</v>
       </c>
       <c r="Y20">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z20">
-        <v>-4.0211145388353242E-2</v>
+        <v>7.6156718954624794E-4</v>
       </c>
       <c r="AA20">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB20">
-        <v>2.123163946268377E-3</v>
+        <v>-8.7722909503838292E-3</v>
       </c>
       <c r="AC20">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD20">
-        <v>0.13682249132625579</v>
+        <v>-0.27475392409707627</v>
       </c>
       <c r="AE20">
         <v>53.513454003500549</v>
       </c>
       <c r="AF20">
-        <v>-0.2077300402274268</v>
+        <v>9.3558732173159492E-2</v>
       </c>
       <c r="AG20">
         <v>14.03746860215735</v>
       </c>
       <c r="AH20">
-        <v>-0.82910366453890383</v>
+        <v>-9.7986139989803406E-3</v>
       </c>
       <c r="AI20">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ20">
-        <v>0.8590046287882106</v>
+        <v>0.16485007718615161</v>
       </c>
       <c r="AK20">
         <v>49.816277458285953</v>
       </c>
       <c r="AL20">
-        <v>-1.036833704766333</v>
+        <v>8.3760118174178444E-2</v>
       </c>
       <c r="AM20">
         <v>28.167338245615049</v>
@@ -3119,118 +3122,118 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>-4.8605489545023112E-2</v>
+        <v>-4.9263795739460631E-2</v>
       </c>
       <c r="C21">
         <v>1.38870811441832</v>
       </c>
       <c r="D21">
-        <v>8.351859507846536E-2</v>
+        <v>9.9490309042905886E-2</v>
       </c>
       <c r="E21">
         <v>1.3792523185294581</v>
       </c>
       <c r="F21">
-        <v>0.1582128734122619</v>
+        <v>-4.5555915098311792E-2</v>
       </c>
       <c r="G21">
         <v>2.061599430822366</v>
       </c>
       <c r="H21">
-        <v>-4.0742691977427772E-3</v>
+        <v>-2.5927674478385131E-2</v>
       </c>
       <c r="I21">
         <v>0.10800683483131281</v>
       </c>
       <c r="J21">
-        <v>-6.2580056174844191E-3</v>
+        <v>-5.9859323935891424E-3</v>
       </c>
       <c r="K21">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L21">
-        <v>-4.6165605755030481E-2</v>
+        <v>-0.1180247763821051</v>
       </c>
       <c r="M21">
         <v>12.06323819585938</v>
       </c>
       <c r="N21">
-        <v>0.12475365266545881</v>
+        <v>-0.10565329045169131</v>
       </c>
       <c r="O21">
         <v>11.50093603314445</v>
       </c>
       <c r="P21">
-        <v>0.26164498690348997</v>
+        <v>3.909959394970787E-2</v>
       </c>
       <c r="Q21">
         <v>1.801132813998908</v>
       </c>
       <c r="R21">
-        <v>-0.24039678849025911</v>
+        <v>-0.60391039045931727</v>
       </c>
       <c r="S21">
         <v>17.378777056883809</v>
       </c>
       <c r="T21">
-        <v>2.0226638234540639E-2</v>
+        <v>0.12719280235613659</v>
       </c>
       <c r="U21">
         <v>9.0100947772977751</v>
       </c>
       <c r="V21">
-        <v>8.2453831337580011E-2</v>
+        <v>0.42663044350076079</v>
       </c>
       <c r="W21">
         <v>9.7709418863113235</v>
       </c>
       <c r="X21">
-        <v>4.6180519716381421E-3</v>
+        <v>-5.82202520080671E-4</v>
       </c>
       <c r="Y21">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z21">
-        <v>-8.9086850942629373E-3</v>
+        <v>2.55743107584338E-3</v>
       </c>
       <c r="AA21">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB21">
-        <v>-3.0152249306105139E-3</v>
+        <v>-6.2097813286962119E-3</v>
       </c>
       <c r="AC21">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD21">
-        <v>-3.5698198630530253E-2</v>
+        <v>0.57852510365103171</v>
       </c>
       <c r="AE21">
         <v>53.513454003500549</v>
       </c>
       <c r="AF21">
-        <v>0.17456600142806319</v>
+        <v>2.2962416939761861E-2</v>
       </c>
       <c r="AG21">
         <v>14.03746860215735</v>
       </c>
       <c r="AH21">
-        <v>8.3611516599764457E-2</v>
+        <v>6.460409659214017E-3</v>
       </c>
       <c r="AI21">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ21">
-        <v>0.45933753573767078</v>
+        <v>-0.21022724983058569</v>
       </c>
       <c r="AK21">
         <v>49.816277458285953</v>
       </c>
       <c r="AL21">
-        <v>0.25817751802782779</v>
+        <v>2.9422826598973991E-2</v>
       </c>
       <c r="AM21">
         <v>28.167338245615049</v>
@@ -3238,118 +3241,118 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>1.1235856853049521E-2</v>
+        <v>2.5042028375203331E-2</v>
       </c>
       <c r="C22">
         <v>1.38870811441832</v>
       </c>
       <c r="D22">
-        <v>-1.7704120981600971E-2</v>
+        <v>6.7706144737488622E-2</v>
       </c>
       <c r="E22">
         <v>1.3792523185294581</v>
       </c>
       <c r="F22">
-        <v>2.0623979275574019E-2</v>
+        <v>-2.1914834030055012E-2</v>
       </c>
       <c r="G22">
         <v>2.061599430822366</v>
       </c>
       <c r="H22">
-        <v>-1.2748531910834899E-2</v>
+        <v>8.2940448408442991E-3</v>
       </c>
       <c r="I22">
         <v>0.10800683483131281</v>
       </c>
       <c r="J22">
-        <v>-1.5979837652489081E-4</v>
+        <v>6.6955653302074522E-3</v>
       </c>
       <c r="K22">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L22">
-        <v>-6.3385517922709272E-2</v>
+        <v>-8.6385340622329443E-3</v>
       </c>
       <c r="M22">
         <v>12.06323819585938</v>
       </c>
       <c r="N22">
-        <v>-1.658610343710343E-3</v>
+        <v>-0.18922517730201291</v>
       </c>
       <c r="O22">
         <v>11.50093603314445</v>
       </c>
       <c r="P22">
-        <v>4.9953447895041581E-2</v>
+        <v>7.913607387152484E-2</v>
       </c>
       <c r="Q22">
         <v>1.801132813998908</v>
       </c>
       <c r="R22">
-        <v>-5.815911250680017E-2</v>
+        <v>-1.170930999818528</v>
       </c>
       <c r="S22">
         <v>17.378777056883809</v>
       </c>
       <c r="T22">
-        <v>-0.41715959472816699</v>
+        <v>-3.8150813981965848E-2</v>
       </c>
       <c r="U22">
         <v>9.0100947772977751</v>
       </c>
       <c r="V22">
-        <v>-0.1991961306705074</v>
+        <v>-0.22454164050201261</v>
       </c>
       <c r="W22">
         <v>9.7709418863113235</v>
       </c>
       <c r="X22">
-        <v>-3.8073503080667359E-3</v>
+        <v>2.4587004156914321E-3</v>
       </c>
       <c r="Y22">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z22">
-        <v>1.060030786868376E-2</v>
+        <v>2.1254594835292E-2</v>
       </c>
       <c r="AA22">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB22">
-        <v>-1.1840801251495021E-2</v>
+        <v>1.8246721411074561E-3</v>
       </c>
       <c r="AC22">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD22">
-        <v>-0.82128295938976625</v>
+        <v>-0.34264002586758657</v>
       </c>
       <c r="AE22">
         <v>53.513454003500549</v>
       </c>
       <c r="AF22">
-        <v>0.14792194723239699</v>
+        <v>3.1623451474221957E-2</v>
       </c>
       <c r="AG22">
         <v>14.03746860215735</v>
       </c>
       <c r="AH22">
-        <v>0.1070990043477294</v>
+        <v>8.1304947533981098E-3</v>
       </c>
       <c r="AI22">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ22">
-        <v>0.2300011672856126</v>
+        <v>0.146565283363842</v>
       </c>
       <c r="AK22">
         <v>49.816277458285953</v>
       </c>
       <c r="AL22">
-        <v>0.25502095158012789</v>
+        <v>3.9753946227618159E-2</v>
       </c>
       <c r="AM22">
         <v>28.167338245615049</v>
@@ -3357,118 +3360,118 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>6.5261997744288175E-2</v>
+        <v>-7.757108047793039E-3</v>
       </c>
       <c r="C23">
         <v>1.38870811441832</v>
       </c>
       <c r="D23">
-        <v>-3.112028863398178E-2</v>
+        <v>1.914931245055734E-4</v>
       </c>
       <c r="E23">
         <v>1.3792523185294581</v>
       </c>
       <c r="F23">
-        <v>-8.8830624620455378E-3</v>
+        <v>-2.457867000847791E-2</v>
       </c>
       <c r="G23">
         <v>2.061599430822366</v>
       </c>
       <c r="H23">
-        <v>1.4845786040273879E-2</v>
+        <v>-1.712107373837557E-2</v>
       </c>
       <c r="I23">
         <v>0.10800683483131281</v>
       </c>
       <c r="J23">
-        <v>1.1523019972137991E-2</v>
+        <v>-9.8905662011593287E-4</v>
       </c>
       <c r="K23">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L23">
-        <v>-7.8817284087732975E-2</v>
+        <v>-1.9331940140679599E-2</v>
       </c>
       <c r="M23">
         <v>12.06323819585938</v>
       </c>
       <c r="N23">
-        <v>9.4322162529729428E-2</v>
+        <v>4.2163572728900117E-2</v>
       </c>
       <c r="O23">
         <v>11.50093603314445</v>
       </c>
       <c r="P23">
-        <v>-0.15979087340056761</v>
+        <v>6.3122703866115024E-3</v>
       </c>
       <c r="Q23">
         <v>1.801132813998908</v>
       </c>
       <c r="R23">
-        <v>0.31211845622235967</v>
+        <v>-0.27936600928717847</v>
       </c>
       <c r="S23">
         <v>17.378777056883809</v>
       </c>
       <c r="T23">
-        <v>0.27356109670907541</v>
+        <v>-8.4105623472956179E-2</v>
       </c>
       <c r="U23">
         <v>9.0100947772977751</v>
       </c>
       <c r="V23">
-        <v>0.1698371056433261</v>
+        <v>0.16727958251388331</v>
       </c>
       <c r="W23">
         <v>9.7709418863113235</v>
       </c>
       <c r="X23">
-        <v>1.728214582784748E-2</v>
+        <v>9.5264874356164788E-3</v>
       </c>
       <c r="Y23">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z23">
-        <v>1.117856429920136E-2</v>
+        <v>3.7428045845879458E-4</v>
       </c>
       <c r="AA23">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB23">
-        <v>-8.3560916641478612E-3</v>
+        <v>6.6247514580880396E-3</v>
       </c>
       <c r="AC23">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD23">
-        <v>-5.6859411100704922E-2</v>
+        <v>0.27954796960217232</v>
       </c>
       <c r="AE23">
         <v>53.513454003500549</v>
       </c>
       <c r="AF23">
-        <v>-0.28282751393399852</v>
+        <v>0.91046576540192592</v>
       </c>
       <c r="AG23">
         <v>14.03746860215735</v>
       </c>
       <c r="AH23">
-        <v>7.0461641427675303E-2</v>
+        <v>2.4253252215976569E-2</v>
       </c>
       <c r="AI23">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ23">
-        <v>-0.63081241459566928</v>
+        <v>1.2534241330049449</v>
       </c>
       <c r="AK23">
         <v>49.816277458285953</v>
       </c>
       <c r="AL23">
-        <v>-0.21236587250632341</v>
+        <v>0.93471901761790055</v>
       </c>
       <c r="AM23">
         <v>28.167338245615049</v>
@@ -3476,118 +3479,118 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>1.546713712007523E-2</v>
+        <v>6.5261997744288175E-2</v>
       </c>
       <c r="C24">
         <v>1.38870811441832</v>
       </c>
       <c r="D24">
-        <v>1.098003135686243E-2</v>
+        <v>-3.112028863398178E-2</v>
       </c>
       <c r="E24">
         <v>1.3792523185294581</v>
       </c>
       <c r="F24">
-        <v>-1.4642281225473831E-2</v>
+        <v>-8.8830624620455378E-3</v>
       </c>
       <c r="G24">
         <v>2.061599430822366</v>
       </c>
       <c r="H24">
-        <v>1.551882423554455E-2</v>
+        <v>1.4845786040273879E-2</v>
       </c>
       <c r="I24">
         <v>0.10800683483131281</v>
       </c>
       <c r="J24">
-        <v>1.139646654377019E-2</v>
+        <v>1.1523019972137991E-2</v>
       </c>
       <c r="K24">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L24">
-        <v>-7.9858837968498006E-2</v>
+        <v>-7.8817284087732975E-2</v>
       </c>
       <c r="M24">
         <v>12.06323819585938</v>
       </c>
       <c r="N24">
-        <v>-0.39032835706758279</v>
+        <v>9.4322162529729428E-2</v>
       </c>
       <c r="O24">
         <v>11.50093603314445</v>
       </c>
       <c r="P24">
-        <v>1.9750066659635881E-2</v>
+        <v>-0.15979087340056761</v>
       </c>
       <c r="Q24">
         <v>1.801132813998908</v>
       </c>
       <c r="R24">
-        <v>0.18346794507671091</v>
+        <v>0.31211845622235967</v>
       </c>
       <c r="S24">
         <v>17.378777056883809</v>
       </c>
       <c r="T24">
-        <v>-6.1092819735017498E-2</v>
+        <v>0.27356109670907541</v>
       </c>
       <c r="U24">
         <v>9.0100947772977751</v>
       </c>
       <c r="V24">
-        <v>-0.25668798773732021</v>
+        <v>0.1698371056433261</v>
       </c>
       <c r="W24">
         <v>9.7709418863113235</v>
       </c>
       <c r="X24">
-        <v>2.030601635124417E-3</v>
+        <v>1.728214582784748E-2</v>
       </c>
       <c r="Y24">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z24">
-        <v>-1.3077100885713591E-2</v>
+        <v>1.117856429920136E-2</v>
       </c>
       <c r="AA24">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB24">
-        <v>5.938378263858719E-3</v>
+        <v>-8.3560916641478612E-3</v>
       </c>
       <c r="AC24">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD24">
-        <v>-0.51509880853422541</v>
+        <v>-5.6859411100704922E-2</v>
       </c>
       <c r="AE24">
         <v>53.513454003500549</v>
       </c>
       <c r="AF24">
-        <v>-0.22436361442018021</v>
+        <v>-0.28282751393399852</v>
       </c>
       <c r="AG24">
         <v>14.03746860215735</v>
       </c>
       <c r="AH24">
-        <v>-0.20914771432736101</v>
+        <v>7.0461641427675303E-2</v>
       </c>
       <c r="AI24">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ24">
-        <v>-0.16588133811872369</v>
+        <v>-0.63081241459566928</v>
       </c>
       <c r="AK24">
         <v>49.816277458285953</v>
       </c>
       <c r="AL24">
-        <v>-0.43351132874754161</v>
+        <v>-0.21236587250632341</v>
       </c>
       <c r="AM24">
         <v>28.167338245615049</v>
@@ -3595,118 +3598,118 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>3.0388769940174941E-2</v>
+        <v>-4.8605489545023112E-2</v>
       </c>
       <c r="C25">
         <v>1.38870811441832</v>
       </c>
       <c r="D25">
-        <v>-9.988116292005432E-3</v>
+        <v>8.351859507846536E-2</v>
       </c>
       <c r="E25">
         <v>1.3792523185294581</v>
       </c>
       <c r="F25">
-        <v>-4.2929484558952652E-2</v>
+        <v>0.1582128734122619</v>
       </c>
       <c r="G25">
         <v>2.061599430822366</v>
       </c>
       <c r="H25">
-        <v>-1.5155639496592719E-3</v>
+        <v>-4.0742691977427772E-3</v>
       </c>
       <c r="I25">
         <v>0.10800683483131281</v>
       </c>
       <c r="J25">
-        <v>-3.4015356377856492E-3</v>
+        <v>-6.2580056174844191E-3</v>
       </c>
       <c r="K25">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L25">
-        <v>-0.102703189262688</v>
+        <v>-4.6165605755030481E-2</v>
       </c>
       <c r="M25">
         <v>12.06323819585938</v>
       </c>
       <c r="N25">
-        <v>5.8083761804127283E-2</v>
+        <v>0.12475365266545881</v>
       </c>
       <c r="O25">
         <v>11.50093603314445</v>
       </c>
       <c r="P25">
-        <v>-6.5850044667618984E-2</v>
+        <v>0.26164498690348997</v>
       </c>
       <c r="Q25">
         <v>1.801132813998908</v>
       </c>
       <c r="R25">
-        <v>0.37639428123531993</v>
+        <v>-0.24039678849025911</v>
       </c>
       <c r="S25">
         <v>17.378777056883809</v>
       </c>
       <c r="T25">
-        <v>2.6915962888179431E-2</v>
+        <v>2.0226638234540639E-2</v>
       </c>
       <c r="U25">
         <v>9.0100947772977751</v>
       </c>
       <c r="V25">
-        <v>0.11091754584403569</v>
+        <v>8.2453831337580011E-2</v>
       </c>
       <c r="W25">
         <v>9.7709418863113235</v>
       </c>
       <c r="X25">
-        <v>1.534113417105603E-3</v>
+        <v>4.6180519716381421E-3</v>
       </c>
       <c r="Y25">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z25">
-        <v>2.0471553047679911E-4</v>
+        <v>-8.9086850942629373E-3</v>
       </c>
       <c r="AA25">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB25">
-        <v>5.5195865865088657E-3</v>
+        <v>-3.0152249306105139E-3</v>
       </c>
       <c r="AC25">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD25">
-        <v>0.2837410795068171</v>
+        <v>-3.5698198630530253E-2</v>
       </c>
       <c r="AE25">
         <v>53.513454003500549</v>
       </c>
       <c r="AF25">
-        <v>-0.33539391643407918</v>
+        <v>0.17456600142806319</v>
       </c>
       <c r="AG25">
         <v>14.03746860215735</v>
       </c>
       <c r="AH25">
-        <v>-0.1040608474778037</v>
+        <v>8.3611516599764457E-2</v>
       </c>
       <c r="AI25">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ25">
-        <v>-0.25941449512944542</v>
+        <v>0.45933753573767078</v>
       </c>
       <c r="AK25">
         <v>49.816277458285953</v>
       </c>
       <c r="AL25">
-        <v>-0.43945476391188237</v>
+        <v>0.25817751802782779</v>
       </c>
       <c r="AM25">
         <v>28.167338245615049</v>
@@ -3714,118 +3717,118 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>-4.9263795739460631E-2</v>
+        <v>4.7520178219180809E-2</v>
       </c>
       <c r="C26">
         <v>1.38870811441832</v>
       </c>
       <c r="D26">
-        <v>9.9490309042905886E-2</v>
+        <v>-8.5991884121218304E-2</v>
       </c>
       <c r="E26">
         <v>1.3792523185294581</v>
       </c>
       <c r="F26">
-        <v>-4.5555915098311792E-2</v>
+        <v>3.8634257059386931E-2</v>
       </c>
       <c r="G26">
         <v>2.061599430822366</v>
       </c>
       <c r="H26">
-        <v>-2.5927674478385131E-2</v>
+        <v>-5.2914955354524526E-3</v>
       </c>
       <c r="I26">
         <v>0.10800683483131281</v>
       </c>
       <c r="J26">
-        <v>-5.9859323935891424E-3</v>
+        <v>-4.9127248036028356E-3</v>
       </c>
       <c r="K26">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L26">
-        <v>-0.1180247763821051</v>
+        <v>0.42672600209662309</v>
       </c>
       <c r="M26">
         <v>12.06323819585938</v>
       </c>
       <c r="N26">
-        <v>-0.10565329045169131</v>
+        <v>7.7727738512973502E-2</v>
       </c>
       <c r="O26">
         <v>11.50093603314445</v>
       </c>
       <c r="P26">
-        <v>3.909959394970787E-2</v>
+        <v>6.3067188399939342E-2</v>
       </c>
       <c r="Q26">
         <v>1.801132813998908</v>
       </c>
       <c r="R26">
-        <v>-0.60391039045931727</v>
+        <v>0.20334875062128291</v>
       </c>
       <c r="S26">
         <v>17.378777056883809</v>
       </c>
       <c r="T26">
-        <v>0.12719280235613659</v>
+        <v>-0.20385851084486159</v>
       </c>
       <c r="U26">
         <v>9.0100947772977751</v>
       </c>
       <c r="V26">
-        <v>0.42663044350076079</v>
+        <v>-2.6988963091685941E-2</v>
       </c>
       <c r="W26">
         <v>9.7709418863113235</v>
       </c>
       <c r="X26">
-        <v>-5.82202520080671E-4</v>
+        <v>-8.5767034389686043E-3</v>
       </c>
       <c r="Y26">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z26">
-        <v>2.55743107584338E-3</v>
+        <v>-5.7855604353510481E-3</v>
       </c>
       <c r="AA26">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB26">
-        <v>-6.2097813286962119E-3</v>
+        <v>-1.2941445845016961E-3</v>
       </c>
       <c r="AC26">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD26">
-        <v>0.57852510365103171</v>
+        <v>8.5657354041805245E-2</v>
       </c>
       <c r="AE26">
         <v>53.513454003500549</v>
       </c>
       <c r="AF26">
-        <v>2.2962416939761861E-2</v>
+        <v>0.52762213333585894</v>
       </c>
       <c r="AG26">
         <v>14.03746860215735</v>
       </c>
       <c r="AH26">
-        <v>6.460409659214017E-3</v>
+        <v>9.6444304418031646E-2</v>
       </c>
       <c r="AI26">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ26">
-        <v>-0.21022724983058569</v>
+        <v>0.66159578748526826</v>
       </c>
       <c r="AK26">
         <v>49.816277458285953</v>
       </c>
       <c r="AL26">
-        <v>2.9422826598973991E-2</v>
+        <v>0.62406643775388959</v>
       </c>
       <c r="AM26">
         <v>28.167338245615049</v>
@@ -3833,118 +3836,118 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B27">
-        <v>-4.9785210936947863E-2</v>
+        <v>1.1235856853049521E-2</v>
       </c>
       <c r="C27">
         <v>1.38870811441832</v>
       </c>
       <c r="D27">
-        <v>-2.2284720209563812E-2</v>
+        <v>-1.7704120981600971E-2</v>
       </c>
       <c r="E27">
         <v>1.3792523185294581</v>
       </c>
       <c r="F27">
-        <v>0.13247374407517501</v>
+        <v>2.0623979275574019E-2</v>
       </c>
       <c r="G27">
         <v>2.061599430822366</v>
       </c>
       <c r="H27">
-        <v>3.1567601249471722E-2</v>
+        <v>-1.2748531910834899E-2</v>
       </c>
       <c r="I27">
         <v>0.10800683483131281</v>
       </c>
       <c r="J27">
-        <v>5.985978498554952E-3</v>
+        <v>-1.5979837652489081E-4</v>
       </c>
       <c r="K27">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L27">
-        <v>-0.1210175913422649</v>
+        <v>-6.3385517922709272E-2</v>
       </c>
       <c r="M27">
         <v>12.06323819585938</v>
       </c>
       <c r="N27">
-        <v>3.768373620220547E-2</v>
+        <v>-1.658610343710343E-3</v>
       </c>
       <c r="O27">
         <v>11.50093603314445</v>
       </c>
       <c r="P27">
-        <v>-3.4906100389293683E-2</v>
+        <v>4.9953447895041581E-2</v>
       </c>
       <c r="Q27">
         <v>1.801132813998908</v>
       </c>
       <c r="R27">
-        <v>1.5540897948543171</v>
+        <v>-5.815911250680017E-2</v>
       </c>
       <c r="S27">
         <v>17.378777056883809</v>
       </c>
       <c r="T27">
-        <v>0.1225929056946175</v>
+        <v>-0.41715959472816699</v>
       </c>
       <c r="U27">
         <v>9.0100947772977751</v>
       </c>
       <c r="V27">
-        <v>-0.2127207505309712</v>
+        <v>-0.1991961306705074</v>
       </c>
       <c r="W27">
         <v>9.7709418863113235</v>
       </c>
       <c r="X27">
-        <v>-2.3161831328428338E-3</v>
+        <v>-3.8073503080667359E-3</v>
       </c>
       <c r="Y27">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z27">
-        <v>-1.2001584897299261E-3</v>
+        <v>1.060030786868376E-2</v>
       </c>
       <c r="AA27">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB27">
-        <v>2.681276658755E-3</v>
+        <v>-1.1840801251495021E-2</v>
       </c>
       <c r="AC27">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD27">
-        <v>-0.1094933859246054</v>
+        <v>-0.82128295938976625</v>
       </c>
       <c r="AE27">
         <v>53.513454003500549</v>
       </c>
       <c r="AF27">
-        <v>0.27083610264346358</v>
+        <v>0.14792194723239699</v>
       </c>
       <c r="AG27">
         <v>14.03746860215735</v>
       </c>
       <c r="AH27">
-        <v>0.88379619888189742</v>
+        <v>0.1070990043477294</v>
       </c>
       <c r="AI27">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ27">
-        <v>-1.109678962115966</v>
+        <v>0.2300011672856126</v>
       </c>
       <c r="AK27">
         <v>49.816277458285953</v>
       </c>
       <c r="AL27">
-        <v>1.154632301525365</v>
+        <v>0.25502095158012789</v>
       </c>
       <c r="AM27">
         <v>28.167338245615049</v>
@@ -3952,118 +3955,118 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>3.5024900573260763E-2</v>
+        <v>-5.8386229243787661E-2</v>
       </c>
       <c r="C28">
         <v>1.38870811441832</v>
       </c>
       <c r="D28">
-        <v>-8.0464858394763528E-2</v>
+        <v>-7.7649184703848101E-3</v>
       </c>
       <c r="E28">
         <v>1.3792523185294581</v>
       </c>
       <c r="F28">
-        <v>3.109411423987787E-2</v>
+        <v>1.614752231159602E-3</v>
       </c>
       <c r="G28">
         <v>2.061599430822366</v>
       </c>
       <c r="H28">
-        <v>2.6127351665572781E-2</v>
+        <v>-8.0924474203907665E-3</v>
       </c>
       <c r="I28">
         <v>0.10800683483131281</v>
       </c>
       <c r="J28">
-        <v>1.5152601927411351E-2</v>
+        <v>5.3445665894209619E-5</v>
       </c>
       <c r="K28">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L28">
-        <v>-0.14450112033906121</v>
+        <v>-0.26499775896615169</v>
       </c>
       <c r="M28">
         <v>12.06323819585938</v>
       </c>
       <c r="N28">
-        <v>-2.4854759590096882E-2</v>
+        <v>-9.0344801701044308E-2</v>
       </c>
       <c r="O28">
         <v>11.50093603314445</v>
       </c>
       <c r="P28">
-        <v>-2.5163740904193009E-2</v>
+        <v>-9.3822907587840718E-2</v>
       </c>
       <c r="Q28">
         <v>1.801132813998908</v>
       </c>
       <c r="R28">
-        <v>0.67027762612994157</v>
+        <v>0.29627203079910691</v>
       </c>
       <c r="S28">
         <v>17.378777056883809</v>
       </c>
       <c r="T28">
-        <v>-0.31481122107139031</v>
+        <v>-8.1225198411350258E-2</v>
       </c>
       <c r="U28">
         <v>9.0100947772977751</v>
       </c>
       <c r="V28">
-        <v>1.622067209959463E-2</v>
+        <v>-1.605160601013347E-2</v>
       </c>
       <c r="W28">
         <v>9.7709418863113235</v>
       </c>
       <c r="X28">
-        <v>1.602619507801753E-2</v>
+        <v>1.117199883936159E-2</v>
       </c>
       <c r="Y28">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z28">
-        <v>-3.977621887882099E-2</v>
+        <v>-3.848428332135093E-3</v>
       </c>
       <c r="AA28">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB28">
-        <v>-9.2316324996788001E-5</v>
+        <v>-4.5514147391182936E-3</v>
       </c>
       <c r="AC28">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD28">
-        <v>0.29129894839913528</v>
+        <v>-0.52717933061217503</v>
       </c>
       <c r="AE28">
         <v>53.513454003500549</v>
       </c>
       <c r="AF28">
-        <v>0.1016679912526617</v>
+        <v>0.10162731820683529</v>
       </c>
       <c r="AG28">
         <v>14.03746860215735</v>
       </c>
       <c r="AH28">
-        <v>-8.9740083051038727E-2</v>
+        <v>0.14620596686029641</v>
       </c>
       <c r="AI28">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ28">
-        <v>0.41932578907644202</v>
+        <v>-0.1336114289428422</v>
       </c>
       <c r="AK28">
         <v>49.816277458285953</v>
       </c>
       <c r="AL28">
-        <v>1.192790820162171E-2</v>
+        <v>0.24783328506713159</v>
       </c>
       <c r="AM28">
         <v>28.167338245615049</v>
@@ -4071,118 +4074,118 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>-7.1329664644594948E-2</v>
+        <v>-5.3930149004760293E-2</v>
       </c>
       <c r="C29">
         <v>1.38870811441832</v>
       </c>
       <c r="D29">
-        <v>1.448652156409401E-2</v>
+        <v>-1.084833049617792E-2</v>
       </c>
       <c r="E29">
         <v>1.3792523185294581</v>
       </c>
       <c r="F29">
-        <v>-7.7695307286504145E-2</v>
+        <v>-8.1110993515591534E-3</v>
       </c>
       <c r="G29">
         <v>2.061599430822366</v>
       </c>
       <c r="H29">
-        <v>-2.616170949854792E-2</v>
+        <v>-1.16541408379727E-2</v>
       </c>
       <c r="I29">
         <v>0.10800683483131281</v>
       </c>
       <c r="J29">
-        <v>-2.1907493382772699E-2</v>
+        <v>-1.2593950898382601E-2</v>
       </c>
       <c r="K29">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L29">
-        <v>-0.22130308236911991</v>
+        <v>9.1027025900260072E-2</v>
       </c>
       <c r="M29">
         <v>12.06323819585938</v>
       </c>
       <c r="N29">
-        <v>0.48693801105672019</v>
+        <v>0.1912323253039809</v>
       </c>
       <c r="O29">
         <v>11.50093603314445</v>
       </c>
       <c r="P29">
-        <v>-7.6984872076833188E-2</v>
+        <v>6.7564779188376486E-2</v>
       </c>
       <c r="Q29">
         <v>1.801132813998908</v>
       </c>
       <c r="R29">
-        <v>0.11943180802057921</v>
+        <v>-0.63358494558581369</v>
       </c>
       <c r="S29">
         <v>17.378777056883809</v>
       </c>
       <c r="T29">
-        <v>0.28838630560249989</v>
+        <v>0.2097305444784536</v>
       </c>
       <c r="U29">
         <v>9.0100947772977751</v>
       </c>
       <c r="V29">
-        <v>0.25711199250080041</v>
+        <v>0.47837239378575003</v>
       </c>
       <c r="W29">
         <v>9.7709418863113235</v>
       </c>
       <c r="X29">
-        <v>1.9064455818224722E-2</v>
+        <v>-7.5746689978890263E-3</v>
       </c>
       <c r="Y29">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z29">
-        <v>-4.8461560476187847E-2</v>
+        <v>2.508704644989904E-2</v>
       </c>
       <c r="AA29">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB29">
-        <v>-8.3527693915331283E-3</v>
+        <v>-7.1924124689655734E-3</v>
       </c>
       <c r="AC29">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD29">
-        <v>-0.3238467097758066</v>
+        <v>0.32823109337831102</v>
       </c>
       <c r="AE29">
         <v>53.513454003500549</v>
       </c>
       <c r="AF29">
-        <v>0.21615223861178781</v>
+        <v>-6.3412632566446692E-2</v>
       </c>
       <c r="AG29">
         <v>14.03746860215735</v>
       </c>
       <c r="AH29">
-        <v>0.40689791592526597</v>
+        <v>0.32585482711208802</v>
       </c>
       <c r="AI29">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ29">
-        <v>-0.25306374499164941</v>
+        <v>-0.50404082528667493</v>
       </c>
       <c r="AK29">
         <v>49.816277458285953</v>
       </c>
       <c r="AL29">
-        <v>0.62305015453705381</v>
+        <v>0.26244219454564099</v>
       </c>
       <c r="AM29">
         <v>28.167338245615049</v>
@@ -4190,118 +4193,118 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>-5.8386229243787661E-2</v>
+        <v>-5.7828036928680583E-2</v>
       </c>
       <c r="C30">
         <v>1.38870811441832</v>
       </c>
       <c r="D30">
-        <v>-7.7649184703848101E-3</v>
+        <v>0.1236359042245606</v>
       </c>
       <c r="E30">
         <v>1.3792523185294581</v>
       </c>
       <c r="F30">
-        <v>1.614752231159602E-3</v>
+        <v>1.3940646582369671E-2</v>
       </c>
       <c r="G30">
         <v>2.061599430822366</v>
       </c>
       <c r="H30">
-        <v>-8.0924474203907665E-3</v>
+        <v>-3.448834999410942E-3</v>
       </c>
       <c r="I30">
         <v>0.10800683483131281</v>
       </c>
       <c r="J30">
-        <v>5.3445665894209619E-5</v>
+        <v>5.1559849449772741E-3</v>
       </c>
       <c r="K30">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L30">
-        <v>-0.26499775896615169</v>
+        <v>0.1816928244951222</v>
       </c>
       <c r="M30">
         <v>12.06323819585938</v>
       </c>
       <c r="N30">
-        <v>-9.0344801701044308E-2</v>
+        <v>-0.54920966775492497</v>
       </c>
       <c r="O30">
         <v>11.50093603314445</v>
       </c>
       <c r="P30">
-        <v>-9.3822907587840718E-2</v>
+        <v>9.2146584930842018E-2</v>
       </c>
       <c r="Q30">
         <v>1.801132813998908</v>
       </c>
       <c r="R30">
-        <v>0.29627203079910691</v>
+        <v>-1.426215316325387</v>
       </c>
       <c r="S30">
         <v>17.378777056883809</v>
       </c>
       <c r="T30">
-        <v>-8.1225198411350258E-2</v>
+        <v>0.39324757799672078</v>
       </c>
       <c r="U30">
         <v>9.0100947772977751</v>
       </c>
       <c r="V30">
-        <v>-1.605160601013347E-2</v>
+        <v>1.064893428561142E-2</v>
       </c>
       <c r="W30">
         <v>9.7709418863113235</v>
       </c>
       <c r="X30">
-        <v>1.117199883936159E-2</v>
+        <v>-1.8045826833949431E-2</v>
       </c>
       <c r="Y30">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z30">
-        <v>-3.848428332135093E-3</v>
+        <v>2.1082543956819851E-2</v>
       </c>
       <c r="AA30">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB30">
-        <v>-4.5514147391182936E-3</v>
+        <v>-7.5140973193277413E-4</v>
       </c>
       <c r="AC30">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD30">
-        <v>-0.52717933061217503</v>
+        <v>9.6778488669189533E-2</v>
       </c>
       <c r="AE30">
         <v>53.513454003500549</v>
       </c>
       <c r="AF30">
-        <v>0.10162731820683529</v>
+        <v>0.32139498427725322</v>
       </c>
       <c r="AG30">
         <v>14.03746860215735</v>
       </c>
       <c r="AH30">
-        <v>0.14620596686029641</v>
+        <v>0.36641499739626782</v>
       </c>
       <c r="AI30">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ30">
-        <v>-0.1336114289428422</v>
+        <v>1.7564626505587291E-2</v>
       </c>
       <c r="AK30">
         <v>49.816277458285953</v>
       </c>
       <c r="AL30">
-        <v>0.24783328506713159</v>
+        <v>0.68780998167352081</v>
       </c>
       <c r="AM30">
         <v>28.167338245615049</v>
@@ -4309,118 +4312,118 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>2.448927618625283E-2</v>
+        <v>-9.4398452913855221E-2</v>
       </c>
       <c r="C31">
         <v>1.38870811441832</v>
       </c>
       <c r="D31">
-        <v>-3.8452088064691907E-2</v>
+        <v>1.7816981437346471E-2</v>
       </c>
       <c r="E31">
         <v>1.3792523185294581</v>
       </c>
       <c r="F31">
-        <v>-1.438796692629014E-2</v>
+        <v>7.4465398969680449E-2</v>
       </c>
       <c r="G31">
         <v>2.061599430822366</v>
       </c>
       <c r="H31">
-        <v>-1.2256950363818599E-2</v>
+        <v>3.0941235519509631E-2</v>
       </c>
       <c r="I31">
         <v>0.10800683483131281</v>
       </c>
       <c r="J31">
-        <v>2.0292889174394931E-3</v>
+        <v>6.9048439829240546E-3</v>
       </c>
       <c r="K31">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L31">
-        <v>-0.27536396904085803</v>
+        <v>-0.27981999949678649</v>
       </c>
       <c r="M31">
         <v>12.06323819585938</v>
       </c>
       <c r="N31">
-        <v>-0.18027937786868301</v>
+        <v>-0.15353196541918129</v>
       </c>
       <c r="O31">
         <v>11.50093603314445</v>
       </c>
       <c r="P31">
-        <v>-0.15334373220606931</v>
+        <v>-6.4530025838946445E-2</v>
       </c>
       <c r="Q31">
         <v>1.801132813998908</v>
       </c>
       <c r="R31">
-        <v>0.93205611280762957</v>
+        <v>0.13735696535041869</v>
       </c>
       <c r="S31">
         <v>17.378777056883809</v>
       </c>
       <c r="T31">
-        <v>-0.1964166626205823</v>
+        <v>-4.1221117944923141E-2</v>
       </c>
       <c r="U31">
         <v>9.0100947772977751</v>
       </c>
       <c r="V31">
-        <v>4.342074905309347E-3</v>
+        <v>0.15598338850733601</v>
       </c>
       <c r="W31">
         <v>9.7709418863113235</v>
       </c>
       <c r="X31">
-        <v>-1.082507108583039E-2</v>
+        <v>5.6148026894656264E-3</v>
       </c>
       <c r="Y31">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z31">
-        <v>-1.19589559243713E-2</v>
+        <v>-1.851952612564679E-2</v>
       </c>
       <c r="AA31">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB31">
-        <v>-1.0323156361431281E-2</v>
+        <v>-1.364310436787949E-2</v>
       </c>
       <c r="AC31">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD31">
-        <v>-4.3393753223960503E-2</v>
+        <v>5.2983010765482341E-2</v>
       </c>
       <c r="AE31">
         <v>53.513454003500549</v>
       </c>
       <c r="AF31">
-        <v>0.50688775541945141</v>
+        <v>0.52731264808728895</v>
       </c>
       <c r="AG31">
         <v>14.03746860215735</v>
       </c>
       <c r="AH31">
-        <v>-0.14661756015383329</v>
+        <v>0.39268805503082982</v>
       </c>
       <c r="AI31">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ31">
-        <v>1.1304786213228</v>
+        <v>-9.6451683498782748E-5</v>
       </c>
       <c r="AK31">
         <v>49.816277458285953</v>
       </c>
       <c r="AL31">
-        <v>0.36027019526562071</v>
+        <v>0.92000070311811988</v>
       </c>
       <c r="AM31">
         <v>28.167338245615049</v>
@@ -4428,118 +4431,118 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B32">
-        <v>-9.4398452913855221E-2</v>
+        <v>-7.1329664644594948E-2</v>
       </c>
       <c r="C32">
         <v>1.38870811441832</v>
       </c>
       <c r="D32">
-        <v>1.7816981437346471E-2</v>
+        <v>1.448652156409401E-2</v>
       </c>
       <c r="E32">
         <v>1.3792523185294581</v>
       </c>
       <c r="F32">
-        <v>7.4465398969680449E-2</v>
+        <v>-7.7695307286504145E-2</v>
       </c>
       <c r="G32">
         <v>2.061599430822366</v>
       </c>
       <c r="H32">
-        <v>3.0941235519509631E-2</v>
+        <v>-2.616170949854792E-2</v>
       </c>
       <c r="I32">
         <v>0.10800683483131281</v>
       </c>
       <c r="J32">
-        <v>6.9048439829240546E-3</v>
+        <v>-2.1907493382772699E-2</v>
       </c>
       <c r="K32">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L32">
-        <v>-0.27981999949678649</v>
+        <v>-0.22130308236911991</v>
       </c>
       <c r="M32">
         <v>12.06323819585938</v>
       </c>
       <c r="N32">
-        <v>-0.15353196541918129</v>
+        <v>0.48693801105672019</v>
       </c>
       <c r="O32">
         <v>11.50093603314445</v>
       </c>
       <c r="P32">
-        <v>-6.4530025838946445E-2</v>
+        <v>-7.6984872076833188E-2</v>
       </c>
       <c r="Q32">
         <v>1.801132813998908</v>
       </c>
       <c r="R32">
-        <v>0.13735696535041869</v>
+        <v>0.11943180802057921</v>
       </c>
       <c r="S32">
         <v>17.378777056883809</v>
       </c>
       <c r="T32">
-        <v>-4.1221117944923141E-2</v>
+        <v>0.28838630560249989</v>
       </c>
       <c r="U32">
         <v>9.0100947772977751</v>
       </c>
       <c r="V32">
-        <v>0.15598338850733601</v>
+        <v>0.25711199250080041</v>
       </c>
       <c r="W32">
         <v>9.7709418863113235</v>
       </c>
       <c r="X32">
-        <v>5.6148026894656264E-3</v>
+        <v>1.9064455818224722E-2</v>
       </c>
       <c r="Y32">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z32">
-        <v>-1.851952612564679E-2</v>
+        <v>-4.8461560476187847E-2</v>
       </c>
       <c r="AA32">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB32">
-        <v>-1.364310436787949E-2</v>
+        <v>-8.3527693915331283E-3</v>
       </c>
       <c r="AC32">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD32">
-        <v>5.2983010765482341E-2</v>
+        <v>-0.3238467097758066</v>
       </c>
       <c r="AE32">
         <v>53.513454003500549</v>
       </c>
       <c r="AF32">
-        <v>0.52731264808728895</v>
+        <v>0.21615223861178781</v>
       </c>
       <c r="AG32">
         <v>14.03746860215735</v>
       </c>
       <c r="AH32">
-        <v>0.39268805503082982</v>
+        <v>0.40689791592526597</v>
       </c>
       <c r="AI32">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ32">
-        <v>-9.6451683498782748E-5</v>
+        <v>-0.25306374499164941</v>
       </c>
       <c r="AK32">
         <v>49.816277458285953</v>
       </c>
       <c r="AL32">
-        <v>0.92000070311811988</v>
+        <v>0.62305015453705381</v>
       </c>
       <c r="AM32">
         <v>28.167338245615049</v>
@@ -4547,118 +4550,118 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>-0.14473912546270251</v>
+        <v>-4.0969655080600138E-2</v>
       </c>
       <c r="C33">
         <v>1.38870811441832</v>
       </c>
       <c r="D33">
-        <v>-1.344054780393153E-2</v>
+        <v>3.0668755020133009E-2</v>
       </c>
       <c r="E33">
         <v>1.3792523185294581</v>
       </c>
       <c r="F33">
-        <v>1.8110595223508419E-3</v>
+        <v>0.21833273659762381</v>
       </c>
       <c r="G33">
         <v>2.061599430822366</v>
       </c>
       <c r="H33">
-        <v>1.691717257173923E-2</v>
+        <v>1.9109516779554001E-2</v>
       </c>
       <c r="I33">
         <v>0.10800683483131281</v>
       </c>
       <c r="J33">
-        <v>1.3843440953072699E-2</v>
+        <v>1.4292996653352621E-2</v>
       </c>
       <c r="K33">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L33">
-        <v>-0.322493786365042</v>
+        <v>0.21830710770026229</v>
       </c>
       <c r="M33">
         <v>12.06323819585938</v>
       </c>
       <c r="N33">
-        <v>-0.56854924251228844</v>
+        <v>0.62684862984317402</v>
       </c>
       <c r="O33">
         <v>11.50093603314445</v>
       </c>
       <c r="P33">
-        <v>-2.5394570881574909E-2</v>
+        <v>4.8116527777567933E-2</v>
       </c>
       <c r="Q33">
         <v>1.801132813998908</v>
       </c>
       <c r="R33">
-        <v>-0.1526523225028491</v>
+        <v>-0.1572962824786705</v>
       </c>
       <c r="S33">
         <v>17.378777056883809</v>
       </c>
       <c r="T33">
-        <v>-0.16863456586144249</v>
+        <v>-0.69536241817270539</v>
       </c>
       <c r="U33">
         <v>9.0100947772977751</v>
       </c>
       <c r="V33">
-        <v>3.5148228654159723E-2</v>
+        <v>-3.3020645737004327E-2</v>
       </c>
       <c r="W33">
         <v>9.7709418863113235</v>
       </c>
       <c r="X33">
-        <v>-3.4447973082007873E-2</v>
+        <v>-6.6604024534867596E-3</v>
       </c>
       <c r="Y33">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z33">
-        <v>-2.6260639274565591E-3</v>
+        <v>2.1624696831168251E-2</v>
       </c>
       <c r="AA33">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB33">
-        <v>1.031935109768521E-4</v>
+        <v>-6.9554737706136877E-3</v>
       </c>
       <c r="AC33">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD33">
-        <v>0.86466812950694572</v>
+        <v>-0.53121589019130599</v>
       </c>
       <c r="AE33">
         <v>53.513454003500549</v>
       </c>
       <c r="AF33">
-        <v>7.9137734713077057E-2</v>
+        <v>0.51732625389516629</v>
       </c>
       <c r="AG33">
         <v>14.03746860215735</v>
       </c>
       <c r="AH33">
-        <v>-7.9439932201715441E-2</v>
+        <v>0.46944162061719957</v>
       </c>
       <c r="AI33">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ33">
-        <v>0.27270476863042908</v>
+        <v>0.43853791966187811</v>
       </c>
       <c r="AK33">
         <v>49.816277458285953</v>
       </c>
       <c r="AL33">
-        <v>-3.0219748863780088E-4</v>
+        <v>0.98676787451236803</v>
       </c>
       <c r="AM33">
         <v>28.167338245615049</v>
@@ -4666,118 +4669,118 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34">
-        <v>-1.4667655495934779E-2</v>
+        <v>-6.3692818617320512E-2</v>
       </c>
       <c r="C34">
         <v>1.38870811441832</v>
       </c>
       <c r="D34">
-        <v>6.0323734858904771E-2</v>
+        <v>-4.4137496353222831E-2</v>
       </c>
       <c r="E34">
         <v>1.3792523185294581</v>
       </c>
       <c r="F34">
-        <v>-0.16539303366448119</v>
+        <v>0.1436961604653256</v>
       </c>
       <c r="G34">
         <v>2.061599430822366</v>
       </c>
       <c r="H34">
-        <v>-1.545845131110269E-2</v>
+        <v>3.022458003690523E-2</v>
       </c>
       <c r="I34">
         <v>0.10800683483131281</v>
       </c>
       <c r="J34">
-        <v>-7.6623014328113404E-3</v>
+        <v>1.0741710812246339E-2</v>
       </c>
       <c r="K34">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L34">
-        <v>-0.45173315750178078</v>
+        <v>0.54947426160751522</v>
       </c>
       <c r="M34">
         <v>12.06323819585938</v>
       </c>
       <c r="N34">
-        <v>-2.5828867128347061E-2</v>
+        <v>0.18407073016121919</v>
       </c>
       <c r="O34">
         <v>11.50093603314445</v>
       </c>
       <c r="P34">
-        <v>0.1269865380850129</v>
+        <v>-3.5366165857820923E-2</v>
       </c>
       <c r="Q34">
         <v>1.801132813998908</v>
       </c>
       <c r="R34">
-        <v>-0.9610024737923929</v>
+        <v>0.25711836689169593</v>
       </c>
       <c r="S34">
         <v>17.378777056883809</v>
       </c>
       <c r="T34">
-        <v>0.10390851109181121</v>
+        <v>-5.215898362428581E-2</v>
       </c>
       <c r="U34">
         <v>9.0100947772977751</v>
       </c>
       <c r="V34">
-        <v>7.709107502305787E-2</v>
+        <v>2.6705622154904029E-2</v>
       </c>
       <c r="W34">
         <v>9.7709418863113235</v>
       </c>
       <c r="X34">
-        <v>1.08218147626102E-2</v>
+        <v>-2.3706745768480971E-2</v>
       </c>
       <c r="Y34">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z34">
-        <v>-1.0196427279708129E-2</v>
+        <v>1.305715266087462E-2</v>
       </c>
       <c r="AA34">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB34">
-        <v>-8.7115906174778965E-4</v>
+        <v>2.473857838841844E-2</v>
       </c>
       <c r="AC34">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD34">
-        <v>-0.14899878569985689</v>
+        <v>0.26636644803499981</v>
       </c>
       <c r="AE34">
         <v>53.513454003500549</v>
       </c>
       <c r="AF34">
-        <v>-0.4551775909472372</v>
+        <v>0.32328982046820648</v>
       </c>
       <c r="AG34">
         <v>14.03746860215735</v>
       </c>
       <c r="AH34">
-        <v>-0.76649645591829096</v>
+        <v>0.5117082839790188</v>
       </c>
       <c r="AI34">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ34">
-        <v>0.97831980953941078</v>
+        <v>-0.39102771168003531</v>
       </c>
       <c r="AK34">
         <v>49.816277458285953</v>
       </c>
       <c r="AL34">
-        <v>-1.2216740468655281</v>
+        <v>0.83499810444722633</v>
       </c>
       <c r="AM34">
         <v>28.167338245615049</v>
@@ -4785,118 +4788,118 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B35">
-        <v>0.4157933350029035</v>
+        <v>-7.2822797772864059E-2</v>
       </c>
       <c r="C35">
         <v>1.38870811441832</v>
       </c>
       <c r="D35">
-        <v>-0.27227550108398568</v>
+        <v>7.0389905862597427E-2</v>
       </c>
       <c r="E35">
         <v>1.3792523185294581</v>
       </c>
       <c r="F35">
-        <v>-0.48369248216555849</v>
+        <v>0.23389554007460939</v>
       </c>
       <c r="G35">
         <v>2.061599430822366</v>
       </c>
       <c r="H35">
-        <v>-5.2523817963745422E-3</v>
+        <v>3.072013411335056E-3</v>
       </c>
       <c r="I35">
         <v>0.10800683483131281</v>
       </c>
       <c r="J35">
-        <v>6.1912460040045481E-4</v>
+        <v>-7.3441395203403901E-4</v>
       </c>
       <c r="K35">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L35">
-        <v>-0.5143206680553577</v>
+        <v>0.4454059613835164</v>
       </c>
       <c r="M35">
         <v>12.06323819585938</v>
       </c>
       <c r="N35">
-        <v>-6.0825242935765009E-2</v>
+        <v>0.15948515993118001</v>
       </c>
       <c r="O35">
         <v>11.50093603314445</v>
       </c>
       <c r="P35">
-        <v>-3.5103185320652007E-2</v>
+        <v>3.8283557434685873E-2</v>
       </c>
       <c r="Q35">
         <v>1.801132813998908</v>
       </c>
       <c r="R35">
-        <v>1.0166341595251689</v>
+        <v>-0.49425726799804182</v>
       </c>
       <c r="S35">
         <v>17.378777056883809</v>
       </c>
       <c r="T35">
-        <v>0.1906554544469107</v>
+        <v>0.25012668508026398</v>
       </c>
       <c r="U35">
         <v>9.0100947772977751</v>
       </c>
       <c r="V35">
-        <v>-0.18921703514323271</v>
+        <v>-4.8857673284592382E-2</v>
       </c>
       <c r="W35">
         <v>9.7709418863113235</v>
       </c>
       <c r="X35">
-        <v>1.5203116893928481E-2</v>
+        <v>3.150003886125748E-3</v>
       </c>
       <c r="Y35">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z35">
-        <v>-1.034994135003719E-2</v>
+        <v>5.1260872936383338E-3</v>
       </c>
       <c r="AA35">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB35">
-        <v>-6.2881090444735516E-3</v>
+        <v>-6.0119128483953274E-3</v>
       </c>
       <c r="AC35">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD35">
-        <v>0.90006537329744785</v>
+        <v>-0.61842513957321066</v>
       </c>
       <c r="AE35">
         <v>53.513454003500549</v>
       </c>
       <c r="AF35">
-        <v>-1.6939037739673299</v>
+        <v>0.61009659232970348</v>
       </c>
       <c r="AG35">
         <v>14.03746860215735</v>
       </c>
       <c r="AH35">
-        <v>-2.0233825051548662</v>
+        <v>0.72626530793109167</v>
       </c>
       <c r="AI35">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ35">
-        <v>0.15300309752646971</v>
+        <v>-0.35669657315720799</v>
       </c>
       <c r="AK35">
         <v>49.816277458285953</v>
       </c>
       <c r="AL35">
-        <v>-3.7172862791221979</v>
+        <v>1.3363619002607969</v>
       </c>
       <c r="AM35">
         <v>28.167338245615049</v>
@@ -4904,118 +4907,118 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>5.4881094210891032E-2</v>
+        <v>-1.8852140553546139E-2</v>
       </c>
       <c r="C36">
         <v>1.38870811441832</v>
       </c>
       <c r="D36">
-        <v>-5.7131831885443449E-2</v>
+        <v>3.1177855936953928E-3</v>
       </c>
       <c r="E36">
         <v>1.3792523185294581</v>
       </c>
       <c r="F36">
-        <v>-0.16663904885694361</v>
+        <v>6.8617807525254676E-2</v>
       </c>
       <c r="G36">
         <v>2.061599430822366</v>
       </c>
       <c r="H36">
-        <v>1.143008176670577E-2</v>
+        <v>-1.907449342685456E-3</v>
       </c>
       <c r="I36">
         <v>0.10800683483131281</v>
       </c>
       <c r="J36">
-        <v>1.7582605543676241E-3</v>
+        <v>-6.6192242293333786E-3</v>
       </c>
       <c r="K36">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L36">
-        <v>-0.62038229690401847</v>
+        <v>0.57577232792453625</v>
       </c>
       <c r="M36">
         <v>12.06323819585938</v>
       </c>
       <c r="N36">
-        <v>3.7301002049691577E-2</v>
+        <v>-5.6170771973673123E-2</v>
       </c>
       <c r="O36">
         <v>11.50093603314445</v>
       </c>
       <c r="P36">
-        <v>-9.6156305542768883E-3</v>
+        <v>0.17122027027117831</v>
       </c>
       <c r="Q36">
         <v>1.801132813998908</v>
       </c>
       <c r="R36">
-        <v>0.17913777339018899</v>
+        <v>0.77948740715096976</v>
       </c>
       <c r="S36">
         <v>17.378777056883809</v>
       </c>
       <c r="T36">
-        <v>6.9828168492330006E-2</v>
+        <v>-0.34345804664698232</v>
       </c>
       <c r="U36">
         <v>9.0100947772977751</v>
       </c>
       <c r="V36">
-        <v>-0.13559206245748651</v>
+        <v>-6.028504654600253E-2</v>
       </c>
       <c r="W36">
         <v>9.7709418863113235</v>
       </c>
       <c r="X36">
-        <v>-1.644622739661987E-2</v>
+        <v>1.399265974828909E-2</v>
       </c>
       <c r="Y36">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z36">
-        <v>7.6711569107005282E-4</v>
+        <v>1.037902242071879E-2</v>
       </c>
       <c r="AA36">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB36">
-        <v>2.8972275987577002E-3</v>
+        <v>9.3345095539658623E-3</v>
       </c>
       <c r="AC36">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD36">
-        <v>0.20869369844955171</v>
+        <v>0.45023431732973679</v>
       </c>
       <c r="AE36">
         <v>53.513454003500549</v>
       </c>
       <c r="AF36">
-        <v>3.1685114410322623E-2</v>
+        <v>0.71793195082933403</v>
       </c>
       <c r="AG36">
         <v>14.03746860215735</v>
       </c>
       <c r="AH36">
-        <v>-3.7213599749091331E-2</v>
+        <v>0.79114551141978329</v>
       </c>
       <c r="AI36">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ36">
-        <v>-4.3715072044517467E-2</v>
+        <v>0.1174536479494009</v>
       </c>
       <c r="AK36">
         <v>49.816277458285953</v>
       </c>
       <c r="AL36">
-        <v>-5.5284853387707056E-3</v>
+        <v>1.5090774622491181</v>
       </c>
       <c r="AM36">
         <v>28.167338245615049</v>
@@ -5023,118 +5026,118 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>-4.2375812621697623E-2</v>
+        <v>4.5476267054731789E-3</v>
       </c>
       <c r="C37">
         <v>1.38870811441832</v>
       </c>
       <c r="D37">
-        <v>-7.2369714803282068E-2</v>
+        <v>-5.0365483889241273E-2</v>
       </c>
       <c r="E37">
         <v>1.3792523185294581</v>
       </c>
       <c r="F37">
-        <v>0.19342577622133009</v>
+        <v>6.2404572205807897E-2</v>
       </c>
       <c r="G37">
         <v>2.061599430822366</v>
       </c>
       <c r="H37">
-        <v>3.5144592956496273E-2</v>
+        <v>-1.2443651797682399E-2</v>
       </c>
       <c r="I37">
         <v>0.10800683483131281</v>
       </c>
       <c r="J37">
-        <v>8.8311058825897466E-3</v>
+        <v>-1.393391338422798E-2</v>
       </c>
       <c r="K37">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L37">
-        <v>-0.6559370731009968</v>
+        <v>0.42061219887791551</v>
       </c>
       <c r="M37">
         <v>12.06323819585938</v>
       </c>
       <c r="N37">
-        <v>0.24482048906809931</v>
+        <v>0.1681493303634026</v>
       </c>
       <c r="O37">
         <v>11.50093603314445</v>
       </c>
       <c r="P37">
-        <v>6.3078194331139509E-2</v>
+        <v>-0.101244890284202</v>
       </c>
       <c r="Q37">
         <v>1.801132813998908</v>
       </c>
       <c r="R37">
-        <v>-0.83721504437882488</v>
+        <v>1.469391104059568</v>
       </c>
       <c r="S37">
         <v>17.378777056883809</v>
       </c>
       <c r="T37">
-        <v>-0.18565197578762391</v>
+        <v>2.330577407019949E-2</v>
       </c>
       <c r="U37">
         <v>9.0100947772977751</v>
       </c>
       <c r="V37">
-        <v>-0.26738233459687522</v>
+        <v>2.210312717532088E-2</v>
       </c>
       <c r="W37">
         <v>9.7709418863113235</v>
       </c>
       <c r="X37">
-        <v>-1.613800252486515E-2</v>
+        <v>-1.395485510658033E-2</v>
       </c>
       <c r="Y37">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z37">
-        <v>-3.9996604648574213E-2</v>
+        <v>9.1958102631328822E-3</v>
       </c>
       <c r="AA37">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB37">
-        <v>-1.7516738363278678E-2</v>
+        <v>2.222214565096233E-3</v>
       </c>
       <c r="AC37">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD37">
-        <v>-0.56717038652768492</v>
+        <v>0.73325181537844886</v>
       </c>
       <c r="AE37">
         <v>53.513454003500549</v>
       </c>
       <c r="AF37">
-        <v>-0.76169709246730588</v>
+        <v>1.109612346216523</v>
       </c>
       <c r="AG37">
         <v>14.03746860215735</v>
       </c>
       <c r="AH37">
-        <v>-0.2146331608576045</v>
+        <v>0.82970661729916084</v>
       </c>
       <c r="AI37">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ37">
-        <v>-1.0463268121218889</v>
+        <v>0.26548180056680432</v>
       </c>
       <c r="AK37">
         <v>49.816277458285953</v>
       </c>
       <c r="AL37">
-        <v>-0.97633025332491097</v>
+        <v>1.939318963515684</v>
       </c>
       <c r="AM37">
         <v>28.167338245615049</v>
@@ -5142,118 +5145,118 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>0.16191915971098039</v>
+        <v>-4.9785210936947863E-2</v>
       </c>
       <c r="C38">
         <v>1.38870811441832</v>
       </c>
       <c r="D38">
-        <v>-3.4306657862552527E-2</v>
+        <v>-2.2284720209563812E-2</v>
       </c>
       <c r="E38">
         <v>1.3792523185294581</v>
       </c>
       <c r="F38">
-        <v>-0.17852379881508551</v>
+        <v>0.13247374407517501</v>
       </c>
       <c r="G38">
         <v>2.061599430822366</v>
       </c>
       <c r="H38">
-        <v>-2.7002010172874739E-2</v>
+        <v>3.1567601249471722E-2</v>
       </c>
       <c r="I38">
         <v>0.10800683483131281</v>
       </c>
       <c r="J38">
-        <v>1.387527518522502E-3</v>
+        <v>5.985978498554952E-3</v>
       </c>
       <c r="K38">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L38">
-        <v>-0.77387482070516256</v>
+        <v>-0.1210175913422649</v>
       </c>
       <c r="M38">
         <v>12.06323819585938</v>
       </c>
       <c r="N38">
-        <v>-8.5487294215874171E-2</v>
+        <v>3.768373620220547E-2</v>
       </c>
       <c r="O38">
         <v>11.50093603314445</v>
       </c>
       <c r="P38">
-        <v>0.14371681978982909</v>
+        <v>-3.4906100389293683E-2</v>
       </c>
       <c r="Q38">
         <v>1.801132813998908</v>
       </c>
       <c r="R38">
-        <v>0.42927840926490329</v>
+        <v>1.5540897948543171</v>
       </c>
       <c r="S38">
         <v>17.378777056883809</v>
       </c>
       <c r="T38">
-        <v>-0.11011853390737809</v>
+        <v>0.1225929056946175</v>
       </c>
       <c r="U38">
         <v>9.0100947772977751</v>
       </c>
       <c r="V38">
-        <v>-7.6107282379298979E-2</v>
+        <v>-0.2127207505309712</v>
       </c>
       <c r="W38">
         <v>9.7709418863113235</v>
       </c>
       <c r="X38">
-        <v>2.42662223739745E-3</v>
+        <v>-2.3161831328428338E-3</v>
       </c>
       <c r="Y38">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z38">
-        <v>-2.497588071433798E-2</v>
+        <v>-1.2001584897299261E-3</v>
       </c>
       <c r="AA38">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB38">
-        <v>1.657408831393082E-2</v>
+        <v>2.681276658755E-3</v>
       </c>
       <c r="AC38">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD38">
-        <v>0.54177844936364172</v>
+        <v>-0.1094933859246054</v>
       </c>
       <c r="AE38">
         <v>53.513454003500549</v>
       </c>
       <c r="AF38">
-        <v>-1.2787477015290101</v>
+        <v>0.27083610264346358</v>
       </c>
       <c r="AG38">
         <v>14.03746860215735</v>
       </c>
       <c r="AH38">
-        <v>-1.579779451982098</v>
+        <v>0.88379619888189742</v>
       </c>
       <c r="AI38">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ38">
-        <v>0.28073103577928782</v>
+        <v>-1.109678962115966</v>
       </c>
       <c r="AK38">
         <v>49.816277458285953</v>
       </c>
       <c r="AL38">
-        <v>-2.8585271535111079</v>
+        <v>1.154632301525365</v>
       </c>
       <c r="AM38">
         <v>28.167338245615049</v>
@@ -5261,118 +5264,118 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-4.5099164459739167E-2</v>
+        <v>-0.10797043911003069</v>
       </c>
       <c r="C39">
         <v>1.38870811441832</v>
       </c>
       <c r="D39">
-        <v>3.7320298834588837E-2</v>
+        <v>-2.2689793358613541E-2</v>
       </c>
       <c r="E39">
         <v>1.3792523185294581</v>
       </c>
       <c r="F39">
-        <v>-7.6820941678773513E-3</v>
+        <v>9.1973501467819199E-2</v>
       </c>
       <c r="G39">
         <v>2.061599430822366</v>
       </c>
       <c r="H39">
-        <v>2.6054544986413141E-2</v>
+        <v>2.93612821549359E-2</v>
       </c>
       <c r="I39">
         <v>0.10800683483131281</v>
       </c>
       <c r="J39">
-        <v>6.5508731265785883E-3</v>
+        <v>4.5614260468895568E-3</v>
       </c>
       <c r="K39">
         <v>4.1626936439058758E-2</v>
       </c>
       <c r="L39">
-        <v>-0.80682146338018734</v>
+        <v>0.34277522499956697</v>
       </c>
       <c r="M39">
         <v>12.06323819585938</v>
       </c>
       <c r="N39">
-        <v>0.1450842394168031</v>
+        <v>-0.27851822786458452</v>
       </c>
       <c r="O39">
         <v>11.50093603314445</v>
       </c>
       <c r="P39">
-        <v>7.5073462905178703E-2</v>
+        <v>-0.10240271568283239</v>
       </c>
       <c r="Q39">
         <v>1.801132813998908</v>
       </c>
       <c r="R39">
-        <v>-0.72436737298077758</v>
+        <v>2.190646488911684E-2</v>
       </c>
       <c r="S39">
         <v>17.378777056883809</v>
       </c>
       <c r="T39">
-        <v>4.3603260538237883E-2</v>
+        <v>0.15744340777287871</v>
       </c>
       <c r="U39">
         <v>9.0100947772977751</v>
       </c>
       <c r="V39">
-        <v>-0.27124827768200199</v>
+        <v>6.5752982551551376E-2</v>
       </c>
       <c r="W39">
         <v>9.7709418863113235</v>
       </c>
       <c r="X39">
-        <v>-1.620060812422236E-2</v>
+        <v>-3.8141197765228412E-3</v>
       </c>
       <c r="Y39">
         <v>0.1198222244037266</v>
       </c>
       <c r="Z39">
-        <v>2.3647493889148979E-2</v>
+        <v>-1.350039895566945E-2</v>
       </c>
       <c r="AA39">
         <v>0.16098497203034259</v>
       </c>
       <c r="AB39">
-        <v>9.0094509700264658E-3</v>
+        <v>-1.51248635595782E-2</v>
       </c>
       <c r="AC39">
         <v>4.5558798901548507E-2</v>
       </c>
       <c r="AD39">
-        <v>-2.1354722781001949</v>
+        <v>-0.13035969814090531</v>
       </c>
       <c r="AE39">
         <v>53.513454003500549</v>
       </c>
       <c r="AF39">
-        <v>-0.64119550527840774</v>
+        <v>0.96435398475816758</v>
       </c>
       <c r="AG39">
         <v>14.03746860215735</v>
       </c>
       <c r="AH39">
-        <v>-0.37004829282750218</v>
+        <v>1.084184599296854</v>
       </c>
       <c r="AI39">
         <v>14.129869643457701</v>
       </c>
       <c r="AJ39">
-        <v>-2.1391040480807061E-2</v>
+        <v>7.5815358079637379E-2</v>
       </c>
       <c r="AK39">
         <v>49.816277458285953</v>
       </c>
       <c r="AL39">
-        <v>-1.011243798105909</v>
+        <v>2.0485385840550192</v>
       </c>
       <c r="AM39">
         <v>28.167338245615049</v>
@@ -5381,7 +5384,7 @@
   </sheetData>
   <autoFilter ref="A1:AM39" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM39">
-      <sortCondition descending="1" ref="L1:L39"/>
+      <sortCondition ref="AH1:AH39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5392,7 +5395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
